--- a/gev.xlsx
+++ b/gev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23C64C-D596-CA4A-8AB1-69F7D7FCC6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039212B9-2194-CD48-8B88-81A9EF3D1DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18000" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18000" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0C902BA8-DB29-8840-A4E3-B4EE13DC32C9}</author>
     <author>tc={DF3A69DD-1198-42A5-A83A-5484CF412A11}</author>
   </authors>
   <commentList>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{0C902BA8-DB29-8840-A4E3-B4EE13DC32C9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    does not include spin-off / sale of nuclear business to EDF. taxes are high because of sale.</t>
-      </text>
-    </comment>
-    <comment ref="K70" authorId="1" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+    <comment ref="K68" authorId="0" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>Price</t>
   </si>
@@ -236,9 +227,6 @@
     <t>Intangibles</t>
   </si>
   <si>
-    <t>SBC</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -348,6 +336,21 @@
   </si>
   <si>
     <t>Operating % y/y</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Pension + Retirement</t>
+  </si>
+  <si>
+    <t>Purchases/Sales</t>
+  </si>
+  <si>
+    <t>Model FCF</t>
+  </si>
+  <si>
+    <t>FCF/revenue</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>684080</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>133614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -562,7 +565,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>7350</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>50213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -608,7 +611,6 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Martin Shkreli" id="{7216FEC0-B7FB-466B-9D42-622825855BC7}" userId="9ffda80931a57275" providerId="Windows Live"/>
-  <person displayName="Zhuping Liu" id="{30FBDE2E-2711-A541-90D7-9499F3AA6A54}" userId="d297780b3146bd88" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -909,10 +911,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I16" dT="2025-07-19T03:28:08.35" personId="{30FBDE2E-2711-A541-90D7-9499F3AA6A54}" id="{0C902BA8-DB29-8840-A4E3-B4EE13DC32C9}">
-    <text>does not include spin-off / sale of nuclear business to EDF. taxes are high because of sale.</text>
-  </threadedComment>
-  <threadedComment ref="K70" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+  <threadedComment ref="K68" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
     <text>Didn’t add up?</text>
   </threadedComment>
 </ThreadedComments>
@@ -920,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -933,79 +932,86 @@
     <col min="8" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>45443</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>548.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2808.8330000000001</v>
+        <v>272.93400000000003</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>575810.76500000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>149838.03666000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <f>10786+417</f>
-        <v>11203</v>
+        <f>8107+2137</f>
+        <v>10244</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <f>7271+85297</f>
-        <v>92568</v>
+        <f>18708+5177+5547</f>
+        <v>29432</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>657175.76500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>169026.03666000001</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G8" s="1">
+        <f>G7/5500</f>
+        <v>30.732006665454549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1017,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:FE73"/>
+  <dimension ref="A1:FE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="T50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
+      <selection pane="bottomRight" activeCell="Z74" sqref="Z74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1156,31 +1162,31 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>53</v>
@@ -1236,7 +1242,7 @@
     <row r="5" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="20">
@@ -1387,9 +1393,18 @@
         <f>SUM(L5:L6)</f>
         <v>8032</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="M7" s="9">
+        <f>+I7*1.06</f>
+        <v>8696.24</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" ref="N7:O7" si="5">+J7*1.06</f>
+        <v>9447.7800000000007</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="5"/>
+        <v>11192.54</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1410,23 +1425,23 @@
         <v>38777.850000000006</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" ref="Z7:AD7" si="5">+Y7*1.11</f>
+        <f t="shared" ref="Z7:AD7" si="6">+Y7*1.11</f>
         <v>43043.41350000001</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47778.188985000015</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53033.789773350021</v>
       </c>
       <c r="AC7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58867.50664841853</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65342.932379744576</v>
       </c>
     </row>
@@ -1471,7 +1486,10 @@
         <f>3915+2647</f>
         <v>6562</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <f>M7-M9</f>
+        <v>6956.9920000000002</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1493,23 +1511,23 @@
         <v>31022.280000000006</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" ref="Z8:AD8" si="6">Z7-Z9</f>
+        <f t="shared" ref="Z8:AD8" si="7">Z7-Z9</f>
         <v>34434.730800000005</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38222.551188000012</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42427.031818680014</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47094.005318734824</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52274.345903795664</v>
       </c>
     </row>
@@ -1519,42 +1537,45 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:L9" si="7">D7-D8</f>
+        <f t="shared" ref="D9:L9" si="8">D7-D8</f>
         <v>919</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1147</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1051</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1701</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1149</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1702</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1109</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2125</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1470</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5">
+        <f>0.2*M7</f>
+        <v>1739.248</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1577,29 +1598,29 @@
         <v>7755.5700000000015</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:AD9" si="8">0.2*Z7</f>
+        <f t="shared" ref="Z9:AD9" si="9">0.2*Z7</f>
         <v>8608.682700000003</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9555.637797000003</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10606.757954670005</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11773.501329683706</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13068.586475948916</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -1653,23 +1674,23 @@
         <v>4817.28</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" ref="Z10:AD10" si="9">+Y10*1.02</f>
+        <f t="shared" ref="Z10:AD10" si="10">+Y10*1.02</f>
         <v>4913.6255999999994</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5011.8981119999999</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5112.1360742400002</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5214.3787957248005</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5318.6663716392968</v>
       </c>
     </row>
@@ -1729,23 +1750,23 @@
         <v>1021.2800000000001</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AD11" si="10">+Y11*1.02</f>
+        <f t="shared" ref="Z11:AD11" si="11">+Y11*1.02</f>
         <v>1041.7056</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1062.539712</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1083.79050624</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1105.4663163647999</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1127.5756426920959</v>
       </c>
     </row>
@@ -1813,23 +1834,23 @@
         <v>5838.5599999999995</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" ref="Z12:AD12" si="11">Z11+Z10</f>
+        <f t="shared" ref="Z12:AD12" si="12">Z11+Z10</f>
         <v>5955.3311999999996</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6074.4378239999996</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6195.9265804799998</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6319.8451120896007</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6446.242014331393</v>
       </c>
     </row>
@@ -1839,39 +1860,39 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:L13" si="12">D9-D12</f>
+        <f t="shared" ref="D13:L13" si="13">D9-D12</f>
         <v>-469</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-341</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-307</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>194</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-290</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>527</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-360</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>594</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="M13" s="5"/>
@@ -1897,23 +1918,23 @@
         <v>1917.010000000002</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" ref="Z13:AD13" si="13">Z9-Z12</f>
+        <f t="shared" ref="Z13:AD13" si="14">Z9-Z12</f>
         <v>2653.3515000000034</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3481.1999730000034</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4410.8313741900056</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5453.6562175941053</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6622.3444616175229</v>
       </c>
     </row>
@@ -1954,7 +1975,6 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -1970,32 +1990,33 @@
         <v>120</v>
       </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <f>+X14*1.03</f>
+        <v>123.60000000000001</v>
       </c>
       <c r="Z14" s="3">
-        <f>Y14*1.01</f>
-        <v>101</v>
+        <f t="shared" ref="Z14:AD14" si="15">+Y14*1.03</f>
+        <v>127.30800000000001</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" ref="AA14:AD14" si="14">Z14*1.01</f>
-        <v>102.01</v>
+        <f t="shared" si="15"/>
+        <v>131.12724</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="14"/>
-        <v>103.0301</v>
+        <f t="shared" si="15"/>
+        <v>135.06105719999999</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="14"/>
-        <v>104.060401</v>
+        <f t="shared" si="15"/>
+        <v>139.112888916</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="14"/>
-        <v>105.10100500999999</v>
+        <f t="shared" si="15"/>
+        <v>143.28627558348001</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -2057,23 +2078,23 @@
         <v>848</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" ref="Z15:AD15" si="15">800*1.06</f>
+        <f t="shared" ref="Z15:AD15" si="16">800*1.06</f>
         <v>848</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>848</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>848</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>848</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>848</v>
       </c>
     </row>
@@ -2087,35 +2108,35 @@
         <v>-415</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:L16" si="16">E13+E14+E15</f>
+        <f t="shared" ref="E16:L16" si="17">E13+E14+E15</f>
         <v>-26</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-15</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>326</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-97</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="16"/>
+        <f>I13+I14+I15</f>
         <v>1602</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-123</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1117</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>333</v>
       </c>
       <c r="M16" s="5"/>
@@ -2138,27 +2159,27 @@
       </c>
       <c r="Y16" s="3">
         <f>Y13+Y14+Y15</f>
-        <v>2865.010000000002</v>
+        <v>2888.6100000000019</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" ref="Z16:AD16" si="17">Z13+Z14+Z15</f>
-        <v>3602.3515000000034</v>
+        <f t="shared" ref="Z16:AD16" si="18">Z13+Z14+Z15</f>
+        <v>3628.6595000000034</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="17"/>
-        <v>4431.2099730000036</v>
+        <f t="shared" si="18"/>
+        <v>4460.3272130000032</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="17"/>
-        <v>5361.8614741900055</v>
+        <f t="shared" si="18"/>
+        <v>5393.8924313900052</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="17"/>
-        <v>6405.7166185941051</v>
+        <f t="shared" si="18"/>
+        <v>6440.7691065101053</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="17"/>
-        <v>7575.4454666275233</v>
+        <f t="shared" si="18"/>
+        <v>7613.6307372010033</v>
       </c>
     </row>
     <row r="17" spans="2:161" x14ac:dyDescent="0.15">
@@ -2214,68 +2235,68 @@
       </c>
       <c r="Y17" s="3">
         <f>0.18*Y16</f>
-        <v>515.70180000000039</v>
+        <v>519.94980000000032</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AD17" si="18">0.18*Z16</f>
-        <v>648.42327000000057</v>
+        <f t="shared" ref="Z17:AD17" si="19">0.18*Z16</f>
+        <v>653.15871000000061</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="18"/>
-        <v>797.61779514000068</v>
+        <f t="shared" si="19"/>
+        <v>802.85889834000056</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="18"/>
-        <v>965.13506535420095</v>
+        <f t="shared" si="19"/>
+        <v>970.90063765020091</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="18"/>
-        <v>1153.0289913469389</v>
+        <f t="shared" si="19"/>
+        <v>1159.3384391718189</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="18"/>
-        <v>1363.5801839929541</v>
+        <f t="shared" si="19"/>
+        <v>1370.4535326961804</v>
       </c>
     </row>
     <row r="18" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="19">D16-D17</f>
+        <f t="shared" ref="D18:L18" si="20">D16-D17</f>
         <v>-346</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-148</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-184</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>678</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-107</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1280</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-100</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>487</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>265</v>
       </c>
       <c r="M18" s="5"/>
@@ -2297,551 +2318,551 @@
       </c>
       <c r="Y18" s="5">
         <f>Y16-Y17</f>
-        <v>2349.3082000000018</v>
+        <v>2368.6602000000016</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18:AD18" si="20">Z16-Z17</f>
-        <v>2953.9282300000027</v>
+        <f t="shared" ref="Z18:AD18" si="21">Z16-Z17</f>
+        <v>2975.5007900000028</v>
       </c>
       <c r="AA18" s="5">
-        <f t="shared" si="20"/>
-        <v>3633.5921778600032</v>
+        <f t="shared" si="21"/>
+        <v>3657.4683146600028</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="20"/>
-        <v>4396.7264088358042</v>
+        <f t="shared" si="21"/>
+        <v>4422.9917937398041</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" si="20"/>
-        <v>5252.6876272471663</v>
+        <f t="shared" si="21"/>
+        <v>5281.4306673382862</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" si="20"/>
-        <v>6211.8652826345697</v>
+        <f t="shared" si="21"/>
+        <v>6243.1772045048228</v>
       </c>
       <c r="AE18" s="3">
         <f>+AD18*1.01</f>
-        <v>6273.9839354609157</v>
+        <v>6305.6089765498709</v>
       </c>
       <c r="AF18" s="3">
         <f>+AE18*1.01</f>
-        <v>6336.7237748155248</v>
+        <v>6368.6650663153696</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" ref="AG18:CS18" si="21">+AF18*1.01</f>
-        <v>6400.0910125636801</v>
+        <f t="shared" ref="AG18:CS18" si="22">+AF18*1.01</f>
+        <v>6432.3517169785237</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="21"/>
-        <v>6464.0919226893166</v>
+        <f t="shared" si="22"/>
+        <v>6496.6752341483088</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="21"/>
-        <v>6528.7328419162095</v>
+        <f t="shared" si="22"/>
+        <v>6561.6419864897916</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="21"/>
-        <v>6594.0201703353714</v>
+        <f t="shared" si="22"/>
+        <v>6627.2584063546892</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="21"/>
-        <v>6659.9603720387249</v>
+        <f t="shared" si="22"/>
+        <v>6693.5309904182359</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="21"/>
-        <v>6726.5599757591126</v>
+        <f t="shared" si="22"/>
+        <v>6760.4663003224186</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="21"/>
-        <v>6793.8255755167038</v>
+        <f t="shared" si="22"/>
+        <v>6828.0709633256429</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="21"/>
-        <v>6861.7638312718709</v>
+        <f t="shared" si="22"/>
+        <v>6896.3516729588991</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="21"/>
-        <v>6930.3814695845895</v>
+        <f t="shared" si="22"/>
+        <v>6965.3151896884883</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="21"/>
-        <v>6999.6852842804356</v>
+        <f t="shared" si="22"/>
+        <v>7034.9683415853733</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="21"/>
-        <v>7069.68213712324</v>
+        <f t="shared" si="22"/>
+        <v>7105.3180250012274</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="21"/>
-        <v>7140.3789584944725</v>
+        <f t="shared" si="22"/>
+        <v>7176.3712052512401</v>
       </c>
       <c r="AS18" s="3">
-        <f t="shared" si="21"/>
-        <v>7211.7827480794176</v>
+        <f t="shared" si="22"/>
+        <v>7248.1349173037524</v>
       </c>
       <c r="AT18" s="3">
-        <f t="shared" si="21"/>
-        <v>7283.900575560212</v>
+        <f t="shared" si="22"/>
+        <v>7320.6162664767899</v>
       </c>
       <c r="AU18" s="3">
-        <f t="shared" si="21"/>
-        <v>7356.7395813158146</v>
+        <f t="shared" si="22"/>
+        <v>7393.8224291415581</v>
       </c>
       <c r="AV18" s="3">
-        <f t="shared" si="21"/>
-        <v>7430.3069771289729</v>
+        <f t="shared" si="22"/>
+        <v>7467.7606534329734</v>
       </c>
       <c r="AW18" s="3">
-        <f t="shared" si="21"/>
-        <v>7504.6100469002631</v>
+        <f t="shared" si="22"/>
+        <v>7542.4382599673036</v>
       </c>
       <c r="AX18" s="3">
-        <f t="shared" si="21"/>
-        <v>7579.6561473692655</v>
+        <f t="shared" si="22"/>
+        <v>7617.8626425669763</v>
       </c>
       <c r="AY18" s="3">
-        <f t="shared" si="21"/>
-        <v>7655.4527088429586</v>
+        <f t="shared" si="22"/>
+        <v>7694.0412689926461</v>
       </c>
       <c r="AZ18" s="3">
-        <f t="shared" si="21"/>
-        <v>7732.0072359313881</v>
+        <f t="shared" si="22"/>
+        <v>7770.9816816825723</v>
       </c>
       <c r="BA18" s="3">
-        <f t="shared" si="21"/>
-        <v>7809.3273082907017</v>
+        <f t="shared" si="22"/>
+        <v>7848.6914984993982</v>
       </c>
       <c r="BB18" s="3">
-        <f t="shared" si="21"/>
-        <v>7887.4205813736089</v>
+        <f t="shared" si="22"/>
+        <v>7927.178413484392</v>
       </c>
       <c r="BC18" s="3">
-        <f t="shared" si="21"/>
-        <v>7966.2947871873448</v>
+        <f t="shared" si="22"/>
+        <v>8006.450197619236</v>
       </c>
       <c r="BD18" s="3">
-        <f t="shared" si="21"/>
-        <v>8045.9577350592181</v>
+        <f t="shared" si="22"/>
+        <v>8086.5146995954283</v>
       </c>
       <c r="BE18" s="3">
-        <f t="shared" si="21"/>
-        <v>8126.4173124098106</v>
+        <f t="shared" si="22"/>
+        <v>8167.3798465913824</v>
       </c>
       <c r="BF18" s="3">
-        <f t="shared" si="21"/>
-        <v>8207.6814855339089</v>
+        <f t="shared" si="22"/>
+        <v>8249.0536450572963</v>
       </c>
       <c r="BG18" s="3">
-        <f t="shared" si="21"/>
-        <v>8289.7583003892487</v>
+        <f t="shared" si="22"/>
+        <v>8331.5441815078702</v>
       </c>
       <c r="BH18" s="3">
-        <f t="shared" si="21"/>
-        <v>8372.6558833931413</v>
+        <f t="shared" si="22"/>
+        <v>8414.8596233229491</v>
       </c>
       <c r="BI18" s="3">
-        <f t="shared" si="21"/>
-        <v>8456.3824422270736</v>
+        <f t="shared" si="22"/>
+        <v>8499.008219556179</v>
       </c>
       <c r="BJ18" s="3">
-        <f t="shared" si="21"/>
-        <v>8540.9462666493437</v>
+        <f t="shared" si="22"/>
+        <v>8583.9983017517407</v>
       </c>
       <c r="BK18" s="3">
-        <f t="shared" si="21"/>
-        <v>8626.3557293158374</v>
+        <f t="shared" si="22"/>
+        <v>8669.8382847692574</v>
       </c>
       <c r="BL18" s="3">
-        <f t="shared" si="21"/>
-        <v>8712.619286608995</v>
+        <f t="shared" si="22"/>
+        <v>8756.5366676169506</v>
       </c>
       <c r="BM18" s="3">
-        <f t="shared" si="21"/>
-        <v>8799.7454794750847</v>
+        <f t="shared" si="22"/>
+        <v>8844.1020342931206</v>
       </c>
       <c r="BN18" s="3">
-        <f t="shared" si="21"/>
-        <v>8887.742934269836</v>
+        <f t="shared" si="22"/>
+        <v>8932.5430546360512</v>
       </c>
       <c r="BO18" s="3">
-        <f t="shared" si="21"/>
-        <v>8976.6203636125338</v>
+        <f t="shared" si="22"/>
+        <v>9021.868485182411</v>
       </c>
       <c r="BP18" s="3">
-        <f t="shared" si="21"/>
-        <v>9066.386567248659</v>
+        <f t="shared" si="22"/>
+        <v>9112.0871700342359</v>
       </c>
       <c r="BQ18" s="3">
-        <f t="shared" si="21"/>
-        <v>9157.0504329211453</v>
+        <f t="shared" si="22"/>
+        <v>9203.2080417345787</v>
       </c>
       <c r="BR18" s="3">
-        <f t="shared" si="21"/>
-        <v>9248.6209372503563</v>
+        <f t="shared" si="22"/>
+        <v>9295.2401221519249</v>
       </c>
       <c r="BS18" s="3">
-        <f t="shared" si="21"/>
-        <v>9341.1071466228605</v>
+        <f t="shared" si="22"/>
+        <v>9388.1925233734437</v>
       </c>
       <c r="BT18" s="3">
-        <f t="shared" si="21"/>
-        <v>9434.5182180890897</v>
+        <f t="shared" si="22"/>
+        <v>9482.0744486071781</v>
       </c>
       <c r="BU18" s="3">
-        <f t="shared" si="21"/>
-        <v>9528.86340026998</v>
+        <f t="shared" si="22"/>
+        <v>9576.8951930932508</v>
       </c>
       <c r="BV18" s="3">
-        <f t="shared" si="21"/>
-        <v>9624.1520342726799</v>
+        <f t="shared" si="22"/>
+        <v>9672.6641450241841</v>
       </c>
       <c r="BW18" s="3">
-        <f t="shared" si="21"/>
-        <v>9720.3935546154062</v>
+        <f t="shared" si="22"/>
+        <v>9769.3907864744269</v>
       </c>
       <c r="BX18" s="3">
-        <f t="shared" si="21"/>
-        <v>9817.5974901615609</v>
+        <f t="shared" si="22"/>
+        <v>9867.0846943391716</v>
       </c>
       <c r="BY18" s="3">
-        <f t="shared" si="21"/>
-        <v>9915.7734650631774</v>
+        <f t="shared" si="22"/>
+        <v>9965.7555412825641</v>
       </c>
       <c r="BZ18" s="3">
-        <f t="shared" si="21"/>
-        <v>10014.931199713808</v>
+        <f t="shared" si="22"/>
+        <v>10065.413096695389</v>
       </c>
       <c r="CA18" s="3">
-        <f t="shared" si="21"/>
-        <v>10115.080511710947</v>
+        <f t="shared" si="22"/>
+        <v>10166.067227662343</v>
       </c>
       <c r="CB18" s="3">
-        <f t="shared" si="21"/>
-        <v>10216.231316828056</v>
+        <f t="shared" si="22"/>
+        <v>10267.727899938965</v>
       </c>
       <c r="CC18" s="3">
-        <f t="shared" si="21"/>
-        <v>10318.393629996337</v>
+        <f t="shared" si="22"/>
+        <v>10370.405178938356</v>
       </c>
       <c r="CD18" s="3">
-        <f t="shared" si="21"/>
-        <v>10421.577566296301</v>
+        <f t="shared" si="22"/>
+        <v>10474.109230727739</v>
       </c>
       <c r="CE18" s="3">
-        <f t="shared" si="21"/>
-        <v>10525.793341959265</v>
+        <f t="shared" si="22"/>
+        <v>10578.850323035016</v>
       </c>
       <c r="CF18" s="3">
-        <f t="shared" si="21"/>
-        <v>10631.051275378857</v>
+        <f t="shared" si="22"/>
+        <v>10684.638826265367</v>
       </c>
       <c r="CG18" s="3">
-        <f t="shared" si="21"/>
-        <v>10737.361788132646</v>
+        <f t="shared" si="22"/>
+        <v>10791.48521452802</v>
       </c>
       <c r="CH18" s="3">
-        <f t="shared" si="21"/>
-        <v>10844.735406013973</v>
+        <f t="shared" si="22"/>
+        <v>10899.400066673301</v>
       </c>
       <c r="CI18" s="3">
-        <f t="shared" si="21"/>
-        <v>10953.182760074113</v>
+        <f t="shared" si="22"/>
+        <v>11008.394067340034</v>
       </c>
       <c r="CJ18" s="3">
-        <f t="shared" si="21"/>
-        <v>11062.714587674855</v>
+        <f t="shared" si="22"/>
+        <v>11118.478008013435</v>
       </c>
       <c r="CK18" s="3">
-        <f t="shared" si="21"/>
-        <v>11173.341733551602</v>
+        <f t="shared" si="22"/>
+        <v>11229.66278809357</v>
       </c>
       <c r="CL18" s="3">
-        <f t="shared" si="21"/>
-        <v>11285.075150887118</v>
+        <f t="shared" si="22"/>
+        <v>11341.959415974507</v>
       </c>
       <c r="CM18" s="3">
-        <f t="shared" si="21"/>
-        <v>11397.925902395989</v>
+        <f t="shared" si="22"/>
+        <v>11455.379010134251</v>
       </c>
       <c r="CN18" s="3">
-        <f t="shared" si="21"/>
-        <v>11511.905161419949</v>
+        <f t="shared" si="22"/>
+        <v>11569.932800235594</v>
       </c>
       <c r="CO18" s="3">
-        <f t="shared" si="21"/>
-        <v>11627.024213034148</v>
+        <f t="shared" si="22"/>
+        <v>11685.63212823795</v>
       </c>
       <c r="CP18" s="3">
-        <f t="shared" si="21"/>
-        <v>11743.294455164491</v>
+        <f t="shared" si="22"/>
+        <v>11802.48844952033</v>
       </c>
       <c r="CQ18" s="3">
-        <f t="shared" si="21"/>
-        <v>11860.727399716136</v>
+        <f t="shared" si="22"/>
+        <v>11920.513334015533</v>
       </c>
       <c r="CR18" s="3">
-        <f t="shared" si="21"/>
-        <v>11979.334673713298</v>
+        <f t="shared" si="22"/>
+        <v>12039.718467355689</v>
       </c>
       <c r="CS18" s="3">
-        <f t="shared" si="21"/>
-        <v>12099.128020450431</v>
+        <f t="shared" si="22"/>
+        <v>12160.115652029246</v>
       </c>
       <c r="CT18" s="3">
-        <f t="shared" ref="CT18:FE18" si="22">+CS18*1.01</f>
-        <v>12220.119300654935</v>
+        <f t="shared" ref="CT18:FE18" si="23">+CS18*1.01</f>
+        <v>12281.71680854954</v>
       </c>
       <c r="CU18" s="3">
-        <f t="shared" si="22"/>
-        <v>12342.320493661484</v>
+        <f t="shared" si="23"/>
+        <v>12404.533976635035</v>
       </c>
       <c r="CV18" s="3">
-        <f t="shared" si="22"/>
-        <v>12465.743698598098</v>
+        <f t="shared" si="23"/>
+        <v>12528.579316401385</v>
       </c>
       <c r="CW18" s="3">
-        <f t="shared" si="22"/>
-        <v>12590.401135584079</v>
+        <f t="shared" si="23"/>
+        <v>12653.865109565399</v>
       </c>
       <c r="CX18" s="3">
-        <f t="shared" si="22"/>
-        <v>12716.30514693992</v>
+        <f t="shared" si="23"/>
+        <v>12780.403760661053</v>
       </c>
       <c r="CY18" s="3">
-        <f t="shared" si="22"/>
-        <v>12843.468198409319</v>
+        <f t="shared" si="23"/>
+        <v>12908.207798267664</v>
       </c>
       <c r="CZ18" s="3">
-        <f t="shared" si="22"/>
-        <v>12971.902880393412</v>
+        <f t="shared" si="23"/>
+        <v>13037.289876250341</v>
       </c>
       <c r="DA18" s="3">
-        <f t="shared" si="22"/>
-        <v>13101.621909197347</v>
+        <f t="shared" si="23"/>
+        <v>13167.662775012845</v>
       </c>
       <c r="DB18" s="3">
-        <f t="shared" si="22"/>
-        <v>13232.63812828932</v>
+        <f t="shared" si="23"/>
+        <v>13299.339402762973</v>
       </c>
       <c r="DC18" s="3">
-        <f t="shared" si="22"/>
-        <v>13364.964509572214</v>
+        <f t="shared" si="23"/>
+        <v>13432.332796790603</v>
       </c>
       <c r="DD18" s="3">
-        <f t="shared" si="22"/>
-        <v>13498.614154667936</v>
+        <f t="shared" si="23"/>
+        <v>13566.656124758509</v>
       </c>
       <c r="DE18" s="3">
-        <f t="shared" si="22"/>
-        <v>13633.600296214616</v>
+        <f t="shared" si="23"/>
+        <v>13702.322686006093</v>
       </c>
       <c r="DF18" s="3">
-        <f t="shared" si="22"/>
-        <v>13769.936299176763</v>
+        <f t="shared" si="23"/>
+        <v>13839.345912866154</v>
       </c>
       <c r="DG18" s="3">
-        <f t="shared" si="22"/>
-        <v>13907.63566216853</v>
+        <f t="shared" si="23"/>
+        <v>13977.739371994816</v>
       </c>
       <c r="DH18" s="3">
-        <f t="shared" si="22"/>
-        <v>14046.712018790215</v>
+        <f t="shared" si="23"/>
+        <v>14117.516765714765</v>
       </c>
       <c r="DI18" s="3">
-        <f t="shared" si="22"/>
-        <v>14187.179138978117</v>
+        <f t="shared" si="23"/>
+        <v>14258.691933371912</v>
       </c>
       <c r="DJ18" s="3">
-        <f t="shared" si="22"/>
-        <v>14329.050930367899</v>
+        <f t="shared" si="23"/>
+        <v>14401.278852705631</v>
       </c>
       <c r="DK18" s="3">
-        <f t="shared" si="22"/>
-        <v>14472.341439671578</v>
+        <f t="shared" si="23"/>
+        <v>14545.291641232687</v>
       </c>
       <c r="DL18" s="3">
-        <f t="shared" si="22"/>
-        <v>14617.064854068294</v>
+        <f t="shared" si="23"/>
+        <v>14690.744557645014</v>
       </c>
       <c r="DM18" s="3">
-        <f t="shared" si="22"/>
-        <v>14763.235502608977</v>
+        <f t="shared" si="23"/>
+        <v>14837.652003221463</v>
       </c>
       <c r="DN18" s="3">
-        <f t="shared" si="22"/>
-        <v>14910.867857635067</v>
+        <f t="shared" si="23"/>
+        <v>14986.028523253677</v>
       </c>
       <c r="DO18" s="3">
-        <f t="shared" si="22"/>
-        <v>15059.976536211418</v>
+        <f t="shared" si="23"/>
+        <v>15135.888808486214</v>
       </c>
       <c r="DP18" s="3">
-        <f t="shared" si="22"/>
-        <v>15210.576301573532</v>
+        <f t="shared" si="23"/>
+        <v>15287.247696571076</v>
       </c>
       <c r="DQ18" s="3">
-        <f t="shared" si="22"/>
-        <v>15362.682064589268</v>
+        <f t="shared" si="23"/>
+        <v>15440.120173536787</v>
       </c>
       <c r="DR18" s="3">
-        <f t="shared" si="22"/>
-        <v>15516.308885235161</v>
+        <f t="shared" si="23"/>
+        <v>15594.521375272156</v>
       </c>
       <c r="DS18" s="3">
-        <f t="shared" si="22"/>
-        <v>15671.471974087513</v>
+        <f t="shared" si="23"/>
+        <v>15750.466589024878</v>
       </c>
       <c r="DT18" s="3">
-        <f t="shared" si="22"/>
-        <v>15828.186693828389</v>
+        <f t="shared" si="23"/>
+        <v>15907.971254915126</v>
       </c>
       <c r="DU18" s="3">
-        <f t="shared" si="22"/>
-        <v>15986.468560766672</v>
+        <f t="shared" si="23"/>
+        <v>16067.050967464278</v>
       </c>
       <c r="DV18" s="3">
-        <f t="shared" si="22"/>
-        <v>16146.333246374339</v>
+        <f t="shared" si="23"/>
+        <v>16227.721477138921</v>
       </c>
       <c r="DW18" s="3">
-        <f t="shared" si="22"/>
-        <v>16307.796578838082</v>
+        <f t="shared" si="23"/>
+        <v>16389.99869191031</v>
       </c>
       <c r="DX18" s="3">
-        <f t="shared" si="22"/>
-        <v>16470.874544626462</v>
+        <f t="shared" si="23"/>
+        <v>16553.898678829413</v>
       </c>
       <c r="DY18" s="3">
-        <f t="shared" si="22"/>
-        <v>16635.583290072726</v>
+        <f t="shared" si="23"/>
+        <v>16719.437665617708</v>
       </c>
       <c r="DZ18" s="3">
-        <f t="shared" si="22"/>
-        <v>16801.939122973454</v>
+        <f t="shared" si="23"/>
+        <v>16886.632042273886</v>
       </c>
       <c r="EA18" s="3">
-        <f t="shared" si="22"/>
-        <v>16969.95851420319</v>
+        <f t="shared" si="23"/>
+        <v>17055.498362696624</v>
       </c>
       <c r="EB18" s="3">
-        <f t="shared" si="22"/>
-        <v>17139.658099345223</v>
+        <f t="shared" si="23"/>
+        <v>17226.053346323592</v>
       </c>
       <c r="EC18" s="3">
-        <f t="shared" si="22"/>
-        <v>17311.054680338675</v>
+        <f t="shared" si="23"/>
+        <v>17398.313879786827</v>
       </c>
       <c r="ED18" s="3">
-        <f t="shared" si="22"/>
-        <v>17484.165227142061</v>
+        <f t="shared" si="23"/>
+        <v>17572.297018584697</v>
       </c>
       <c r="EE18" s="3">
-        <f t="shared" si="22"/>
-        <v>17659.006879413482</v>
+        <f t="shared" si="23"/>
+        <v>17748.019988770546</v>
       </c>
       <c r="EF18" s="3">
-        <f t="shared" si="22"/>
-        <v>17835.596948207618</v>
+        <f t="shared" si="23"/>
+        <v>17925.50018865825</v>
       </c>
       <c r="EG18" s="3">
-        <f t="shared" si="22"/>
-        <v>18013.952917689694</v>
+        <f t="shared" si="23"/>
+        <v>18104.755190544834</v>
       </c>
       <c r="EH18" s="3">
-        <f t="shared" si="22"/>
-        <v>18194.092446866591</v>
+        <f t="shared" si="23"/>
+        <v>18285.802742450283</v>
       </c>
       <c r="EI18" s="3">
-        <f t="shared" si="22"/>
-        <v>18376.033371335256</v>
+        <f t="shared" si="23"/>
+        <v>18468.660769874787</v>
       </c>
       <c r="EJ18" s="3">
-        <f t="shared" si="22"/>
-        <v>18559.793705048607</v>
+        <f t="shared" si="23"/>
+        <v>18653.347377573533</v>
       </c>
       <c r="EK18" s="3">
-        <f t="shared" si="22"/>
-        <v>18745.391642099094</v>
+        <f t="shared" si="23"/>
+        <v>18839.88085134927</v>
       </c>
       <c r="EL18" s="3">
-        <f t="shared" si="22"/>
-        <v>18932.845558520086</v>
+        <f t="shared" si="23"/>
+        <v>19028.279659862761</v>
       </c>
       <c r="EM18" s="3">
-        <f t="shared" si="22"/>
-        <v>19122.174014105287</v>
+        <f t="shared" si="23"/>
+        <v>19218.56245646139</v>
       </c>
       <c r="EN18" s="3">
-        <f t="shared" si="22"/>
-        <v>19313.395754246339</v>
+        <f t="shared" si="23"/>
+        <v>19410.748081026006</v>
       </c>
       <c r="EO18" s="3">
-        <f t="shared" si="22"/>
-        <v>19506.529711788804</v>
+        <f t="shared" si="23"/>
+        <v>19604.855561836266</v>
       </c>
       <c r="EP18" s="3">
-        <f t="shared" si="22"/>
-        <v>19701.595008906694</v>
+        <f t="shared" si="23"/>
+        <v>19800.904117454629</v>
       </c>
       <c r="EQ18" s="3">
-        <f t="shared" si="22"/>
-        <v>19898.61095899576</v>
+        <f t="shared" si="23"/>
+        <v>19998.913158629177</v>
       </c>
       <c r="ER18" s="3">
-        <f t="shared" si="22"/>
-        <v>20097.597068585717</v>
+        <f t="shared" si="23"/>
+        <v>20198.902290215468</v>
       </c>
       <c r="ES18" s="3">
-        <f t="shared" si="22"/>
-        <v>20298.573039271574</v>
+        <f t="shared" si="23"/>
+        <v>20400.891313117623</v>
       </c>
       <c r="ET18" s="3">
-        <f t="shared" si="22"/>
-        <v>20501.558769664291</v>
+        <f t="shared" si="23"/>
+        <v>20604.900226248799</v>
       </c>
       <c r="EU18" s="3">
-        <f t="shared" si="22"/>
-        <v>20706.574357360932</v>
+        <f t="shared" si="23"/>
+        <v>20810.949228511286</v>
       </c>
       <c r="EV18" s="3">
-        <f t="shared" si="22"/>
-        <v>20913.640100934543</v>
+        <f t="shared" si="23"/>
+        <v>21019.058720796398</v>
       </c>
       <c r="EW18" s="3">
-        <f t="shared" si="22"/>
-        <v>21122.776501943888</v>
+        <f t="shared" si="23"/>
+        <v>21229.249308004361</v>
       </c>
       <c r="EX18" s="3">
-        <f t="shared" si="22"/>
-        <v>21334.004266963326</v>
+        <f t="shared" si="23"/>
+        <v>21441.541801084404</v>
       </c>
       <c r="EY18" s="3">
-        <f t="shared" si="22"/>
-        <v>21547.344309632957</v>
+        <f t="shared" si="23"/>
+        <v>21655.957219095249</v>
       </c>
       <c r="EZ18" s="3">
-        <f t="shared" si="22"/>
-        <v>21762.817752729286</v>
+        <f t="shared" si="23"/>
+        <v>21872.516791286202</v>
       </c>
       <c r="FA18" s="3">
-        <f t="shared" si="22"/>
-        <v>21980.445930256581</v>
+        <f t="shared" si="23"/>
+        <v>22091.241959199066</v>
       </c>
       <c r="FB18" s="3">
-        <f t="shared" si="22"/>
-        <v>22200.250389559147</v>
+        <f t="shared" si="23"/>
+        <v>22312.154378791056</v>
       </c>
       <c r="FC18" s="3">
-        <f t="shared" si="22"/>
-        <v>22422.252893454737</v>
+        <f t="shared" si="23"/>
+        <v>22535.275922578967</v>
       </c>
       <c r="FD18" s="3">
-        <f t="shared" si="22"/>
-        <v>22646.475422389285</v>
+        <f t="shared" si="23"/>
+        <v>22760.628681804756</v>
       </c>
       <c r="FE18" s="3">
-        <f t="shared" si="22"/>
-        <v>22872.940176613178</v>
+        <f t="shared" si="23"/>
+        <v>22988.234968622804</v>
       </c>
     </row>
     <row r="19" spans="2:161" x14ac:dyDescent="0.15">
@@ -2892,27 +2913,27 @@
       </c>
       <c r="Y19" s="24">
         <f>Y18/Y20</f>
-        <v>8.5741175182481815</v>
+        <v>8.6447452554744579</v>
       </c>
       <c r="Z19" s="24">
-        <f t="shared" ref="Z19:AD19" si="23">Z18/Z20</f>
-        <v>10.780759963503659</v>
+        <f t="shared" ref="Z19:AD19" si="24">Z18/Z20</f>
+        <v>10.859491934306579</v>
       </c>
       <c r="AA19" s="24">
-        <f t="shared" si="23"/>
-        <v>13.261285320656945</v>
+        <f t="shared" si="24"/>
+        <v>13.348424506058404</v>
       </c>
       <c r="AB19" s="24">
-        <f t="shared" si="23"/>
-        <v>16.046446747575928</v>
+        <f t="shared" si="24"/>
+        <v>16.142305816568626</v>
       </c>
       <c r="AC19" s="24">
-        <f t="shared" si="23"/>
-        <v>19.170392800172142</v>
+        <f t="shared" si="24"/>
+        <v>19.275294406344109</v>
       </c>
       <c r="AD19" s="24">
-        <f t="shared" si="23"/>
-        <v>22.671041177498431</v>
+        <f t="shared" si="24"/>
+        <v>22.785318264616141</v>
       </c>
     </row>
     <row r="20" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2991,19 +3012,19 @@
         <v>6.4057461155086592E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:L23" si="24">I7/E7-1</f>
+        <f t="shared" ref="I23:L23" si="25">I7/E7-1</f>
         <v>1.0344827586206806E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.010179350460489E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1169736187157699E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="24"/>
+        <f>L7/H7-1</f>
         <v>0.10648849703815944</v>
       </c>
       <c r="M23" s="7"/>
@@ -3026,7 +3047,7 @@
     </row>
     <row r="24" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3066,31 +3087,31 @@
         <v>0.13471122837877456</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" ref="E25:K25" si="25">E9/E7</f>
+        <f t="shared" ref="E25:K25" si="26">E9/E7</f>
         <v>0.14125615763546798</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.12736306349975762</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.16933797909407666</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15828626532580245</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.20745977571916138</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.12442499719510827</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.20125011838242257</v>
       </c>
       <c r="L25" s="7">
@@ -3118,7 +3139,7 @@
     </row>
     <row r="26" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
@@ -3126,35 +3147,35 @@
         <v>-6.8748167692758724E-2</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" ref="E26:L26" si="26">E13/E7</f>
+        <f t="shared" ref="E26:L26" si="27">E13/E7</f>
         <v>-4.1995073891625614E-2</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-3.7203102278235582E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.9313091090094575E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-3.995040639206502E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.4236957581667475E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-4.0390440928980142E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6255327209016007E-2</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.3535856573705175E-3</v>
       </c>
       <c r="M26" s="7"/>
@@ -3178,7 +3199,7 @@
     </row>
     <row r="27" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
@@ -3186,35 +3207,35 @@
         <v>0.16626506024096385</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" ref="E27:L27" si="27">E17/E16</f>
+        <f t="shared" ref="E27:L27" si="28">E17/E16</f>
         <v>-4.6923076923076925</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-11.266666666666667</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.0797546012269938</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.10309278350515463</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.2009987515605493</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18699186991869918</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.56401074306177257</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.20420420420420421</v>
       </c>
       <c r="M27" s="7"/>
@@ -3238,7 +3259,7 @@
     </row>
     <row r="28" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3254,15 +3275,15 @@
         <v>-0.21034946236559138</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28:L28" si="28">J12/F12-1</f>
+        <f t="shared" ref="J28:L28" si="29">J12/F12-1</f>
         <v>8.1737849779086824E-2</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.5925680159256883E-2</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.3391243919388458E-3</v>
       </c>
       <c r="M28" s="7"/>
@@ -3313,7 +3334,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AF30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG30" s="14">
         <v>0.01</v>
@@ -3345,10 +3366,10 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="AF31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG31" s="14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3375,7 +3396,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="AF32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG32" s="14">
         <v>0.06</v>
@@ -3405,11 +3426,11 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="AF33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG33" s="3">
         <f>NPV(AG32,Y18:DO18)-L30</f>
-        <v>131510.39652800449</v>
+        <v>132072.09648361156</v>
       </c>
     </row>
     <row r="34" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3436,11 +3457,11 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="AF34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG34" s="15">
         <f>AG33/274</f>
-        <v>479.96495083213318</v>
+        <v>482.01495067011518</v>
       </c>
     </row>
     <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3467,11 +3488,11 @@
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="AF35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG35" s="14">
         <f>AG34/574.6-1</f>
-        <v>-0.16469726621626668</v>
+        <v>-0.16112956722917648</v>
       </c>
     </row>
     <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3765,7 +3786,7 @@
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="50" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
@@ -3774,11 +3795,17 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="H50" s="5">
+        <v>-107</v>
+      </c>
+      <c r="I50" s="5">
+        <v>465</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="L50" s="5">
+        <v>265</v>
+      </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -3787,25 +3814,38 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="5">
-        <f>+V18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5">
+        <v>-346</v>
+      </c>
+      <c r="E51" s="5">
+        <f>-495-D51</f>
+        <v>-149</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="H51" s="5">
+        <v>-106</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1280</v>
+      </c>
+      <c r="J51" s="5">
+        <f>1075-I51-H51</f>
+        <v>-99</v>
+      </c>
+      <c r="K51" s="5">
+        <v>487</v>
+      </c>
+      <c r="L51" s="5">
+        <v>264</v>
+      </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -3815,23 +3855,41 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5">
-        <v>6717</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-2722</v>
+      </c>
+      <c r="W51" s="3">
+        <v>-474</v>
+      </c>
+      <c r="X51" s="3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="5">
+        <v>176</v>
+      </c>
+      <c r="E52" s="5">
+        <f>347-D52</f>
+        <v>171</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="5">
+        <v>188</v>
+      </c>
+      <c r="I52" s="5">
+        <f>379-H52</f>
+        <v>191</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5">
+        <v>149</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -3841,23 +3899,41 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>779</v>
+      </c>
+      <c r="W52" s="3">
+        <v>724</v>
+      </c>
+      <c r="X52" s="3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5">
+        <v>55</v>
+      </c>
+      <c r="E53" s="5">
+        <f>123-D53</f>
+        <v>68</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="H53" s="5">
+        <v>63</v>
+      </c>
+      <c r="I53" s="5">
+        <f>126-H53</f>
+        <v>63</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5">
+        <v>56</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -3867,12 +3943,18 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1018</v>
+      </c>
+      <c r="W53" s="3">
+        <v>240</v>
+      </c>
+      <c r="X53" s="3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3880,10 +3962,14 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <v>-851</v>
+      </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="L54" s="5">
+        <v>-21</v>
+      </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -3893,23 +3979,44 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5">
-        <v>-1146</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-21</v>
+      </c>
+      <c r="W54" s="3">
+        <v>-209</v>
+      </c>
+      <c r="X54" s="3">
+        <v>-1147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="5">
+        <f>-99-83</f>
+        <v>-182</v>
+      </c>
+      <c r="E55" s="5">
+        <f>-95-D55</f>
+        <v>87</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="H55" s="5">
+        <f>-95-47</f>
+        <v>-142</v>
+      </c>
+      <c r="I55" s="5">
+        <f>-186-121-H55</f>
+        <v>-165</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+      <c r="L55" s="5">
+        <f>-89-44</f>
+        <v>-133</v>
+      </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -3919,23 +4026,43 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-206</v>
+      </c>
+      <c r="W55" s="3">
+        <f>-405-313</f>
+        <v>-718</v>
+      </c>
+      <c r="X55" s="3">
+        <f>-376-290</f>
+        <v>-666</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <f>-69-45</f>
+        <v>-114</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="H56" s="5">
+        <f>10-58</f>
+        <v>-48</v>
+      </c>
+      <c r="I56" s="5">
+        <f>333-173-H56</f>
+        <v>208</v>
+      </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="L56" s="5">
+        <f>68-145</f>
+        <v>-77</v>
+      </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -3945,23 +4072,47 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f>248-91</f>
+        <v>157</v>
+      </c>
+      <c r="W56" s="3">
+        <f>344-2</f>
+        <v>342</v>
+      </c>
+      <c r="X56" s="3">
+        <f>939-623</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="D57" s="5">
+        <f>591-12-739-36-306+10+317-104</f>
+        <v>-279</v>
+      </c>
+      <c r="E57" s="5">
+        <f>-163-D57</f>
+        <v>116</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="5">
+        <f>359-56-717-270-306-365+885+71</f>
+        <v>-399</v>
+      </c>
+      <c r="I57" s="5">
+        <f>683-6-1288-408+94-384+1596-430-H57</f>
+        <v>256</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="L57" s="5">
+        <f>918-432-345-269+1124-74</f>
+        <v>922</v>
+      </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -3971,74 +4122,121 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5">
-        <f>-874+11-733-398+7</f>
-        <v>-1987</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f>-870-4-949+353+643+124+1282+302</f>
+        <v>881</v>
+      </c>
+      <c r="W57" s="3">
+        <f>-837-2-240+113-663-53+2812+151</f>
+        <v>1281</v>
+      </c>
+      <c r="X57" s="3">
+        <f>-1289-8-641-409+1066-398+2799+229</f>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5">
+        <f>SUM(D51:D57)</f>
+        <v>-690</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="H58" s="5">
+        <f>SUM(H51:H57)</f>
+        <v>-444</v>
+      </c>
+      <c r="I58" s="5">
+        <f>SUM(I51:I57)</f>
+        <v>982</v>
+      </c>
+      <c r="J58" s="5">
+        <f>1662-I58-H58</f>
+        <v>1124</v>
+      </c>
+      <c r="K58" s="5">
+        <f>2583-J58-I58-H58</f>
+        <v>921</v>
+      </c>
+      <c r="L58" s="5">
+        <f>SUM(L51:L57)</f>
+        <v>1160</v>
+      </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="5">
-        <v>13139</v>
-      </c>
-      <c r="U58" s="5">
-        <v>15887</v>
-      </c>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
       <c r="V58" s="5">
         <f>SUM(V51:V57)</f>
-        <v>9539</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-114</v>
+      </c>
+      <c r="W58" s="3">
+        <f>SUM(W51:W57)</f>
+        <v>1186</v>
+      </c>
+      <c r="X58" s="3">
+        <f>SUM(X51:X57)</f>
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5">
+        <v>-124</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="H60" s="5">
+        <v>-217</v>
+      </c>
+      <c r="I60" s="5">
+        <f>-374-H60</f>
+        <v>-157</v>
+      </c>
+      <c r="J60" s="5">
+        <f>-533-I60-H60</f>
+        <v>-159</v>
+      </c>
+      <c r="K60" s="5">
+        <f>-833-J60-I60-H60</f>
+        <v>-300</v>
+      </c>
+      <c r="L60" s="5">
+        <v>-186</v>
+      </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="5">
-        <v>-1564</v>
-      </c>
-      <c r="U60" s="5">
-        <v>-2135</v>
-      </c>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
       <c r="V60" s="5">
-        <v>-4511</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-513</v>
+      </c>
+      <c r="W60" s="3">
+        <v>-744</v>
+      </c>
+      <c r="X60" s="3">
+        <v>-883</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4058,24 +4256,34 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
-      <c r="V61" s="5">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <f>-18+13+86</f>
+        <v>81</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="H62" s="5">
+        <f>-91+29-9</f>
+        <v>-71</v>
+      </c>
+      <c r="I62" s="5">
+        <f>-108+31+639+51</f>
+        <v>613</v>
+      </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5">
+        <f>-6+90-25</f>
+        <v>59</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -4086,20 +4294,32 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <f>D60+D62</f>
+        <v>-43</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="H63" s="3">
+        <f>H60+H62</f>
+        <v>-288</v>
+      </c>
+      <c r="I63" s="5">
+        <f>I62+I60</f>
+        <v>456</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="L63" s="5">
+        <f>L62+L60</f>
+        <v>-127</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -4110,7 +4330,7 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -4131,60 +4351,29 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
-    <row r="65" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5">
-        <f>-10272+19788+6363</f>
-        <v>15879</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5">
-        <f>SUM(V60:V65)</f>
-        <v>11220</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -4192,9 +4381,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -4202,9 +4391,9 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -4212,19 +4401,15 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+        <v>87</v>
+      </c>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -4232,21 +4417,136 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D73" s="5">
+        <f>D58+D60</f>
+        <v>-814</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" ref="E73:L73" si="30">E58+E60</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="30"/>
+        <v>-661</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="30"/>
+        <v>825</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="30"/>
+        <v>965</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="30"/>
+        <v>621</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" si="30"/>
+        <v>974</v>
+      </c>
+      <c r="V73" s="5">
+        <f>V58+V60</f>
+        <v>-627</v>
+      </c>
+      <c r="W73" s="5">
+        <f t="shared" ref="W73:X73" si="31">W58+W60</f>
+        <v>442</v>
+      </c>
+      <c r="X73" s="5">
+        <f t="shared" si="31"/>
+        <v>1700</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>2273</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>3133</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="4">
+        <v>-661</v>
+      </c>
+      <c r="I74" s="5">
+        <f>SUM(I52:I57,I50)</f>
+        <v>167</v>
+      </c>
+      <c r="J74" s="4">
+        <v>965</v>
+      </c>
+      <c r="K74" s="4">
+        <v>621</v>
+      </c>
+      <c r="L74" s="4">
+        <v>974</v>
+      </c>
+      <c r="M74" s="5">
+        <f>M7*0.08</f>
+        <v>695.69920000000002</v>
+      </c>
+      <c r="N74" s="5">
+        <f>N7*0.12</f>
+        <v>1133.7336</v>
+      </c>
+      <c r="O74" s="5">
+        <f>O7*0.07</f>
+        <v>783.47780000000012</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="13">
+        <f>I74/I7</f>
+        <v>2.0355923939541685E-2</v>
+      </c>
+      <c r="J75" s="13">
+        <f t="shared" ref="J75:L75" si="32">J74/J7</f>
+        <v>0.10826882082351622</v>
+      </c>
+      <c r="K75" s="13">
+        <f t="shared" si="32"/>
+        <v>5.8812387536698554E-2</v>
+      </c>
+      <c r="L75" s="13">
+        <f t="shared" si="32"/>
+        <v>0.12126494023904383</v>
+      </c>
+      <c r="M75" s="13">
+        <f t="shared" ref="M75" si="33">M74/M7</f>
+        <v>0.08</v>
+      </c>
+      <c r="N75" s="13">
+        <f t="shared" ref="N75" si="34">N74/N7</f>
+        <v>0.12</v>
+      </c>
+      <c r="O75" s="13">
+        <f t="shared" ref="O75" si="35">O74/O7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1048576" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X1048576" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gev.xlsx
+++ b/gev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039212B9-2194-CD48-8B88-81A9EF3D1DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FC393-3E5C-3348-B65A-5C43F55E80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18000" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,14 +507,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>684080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6747</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>684080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6747</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>133614</xdr:rowOff>
     </xdr:to>
@@ -531,8 +531,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5831813" y="0"/>
-          <a:ext cx="0" cy="14865614"/>
+          <a:off x="9269280" y="0"/>
+          <a:ext cx="0" cy="12833614"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -922,7 +922,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>548.99</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>149838.03666000001</v>
+        <v>168673.21200000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -996,14 +996,14 @@
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>169026.03666000001</v>
+        <v>187861.21200000003</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G8" s="1">
-        <f>G7/5500</f>
-        <v>30.732006665454549</v>
+        <f>G7/7140</f>
+        <v>26.311094117647063</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1026,10 +1026,10 @@
   <dimension ref="A1:FE1048576"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z74" sqref="Z74"/>
+      <selection pane="bottomRight" activeCell="AA73" sqref="AA73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1274,7 +1274,9 @@
       <c r="L5" s="20">
         <v>4197</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="18">
+        <v>4894</v>
+      </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17"/>
@@ -1334,7 +1336,9 @@
       <c r="L6" s="5">
         <v>3835</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5">
+        <v>4217</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1394,16 +1398,16 @@
         <v>8032</v>
       </c>
       <c r="M7" s="9">
-        <f>+I7*1.06</f>
-        <v>8696.24</v>
+        <f>M6+M5</f>
+        <v>9111</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" ref="N7:O7" si="5">+J7*1.06</f>
-        <v>9447.7800000000007</v>
+        <f>+J7*1.11</f>
+        <v>9893.43</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="5"/>
-        <v>11192.54</v>
+        <f>+K7*1.12</f>
+        <v>11826.080000000002</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1425,23 +1429,23 @@
         <v>38777.850000000006</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" ref="Z7:AD7" si="6">+Y7*1.11</f>
+        <f t="shared" ref="Z7:AD7" si="5">+Y7*1.11</f>
         <v>43043.41350000001</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47778.188985000015</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53033.789773350021</v>
       </c>
       <c r="AC7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58867.50664841853</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65342.932379744576</v>
       </c>
     </row>
@@ -1488,10 +1492,16 @@
       </c>
       <c r="M8" s="5">
         <f>M7-M9</f>
-        <v>6956.9920000000002</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+        <v>7265</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ref="N8:O8" si="6">N7-N9</f>
+        <v>7865.2768500000002</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="6"/>
+        <v>9224.3424000000014</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="S8" s="5"/>
@@ -1573,11 +1583,16 @@
         <v>1470</v>
       </c>
       <c r="M9" s="5">
-        <f>0.2*M7</f>
-        <v>1739.248</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+        <v>1846</v>
+      </c>
+      <c r="N9" s="5">
+        <f>N25*N7</f>
+        <v>2028.1531499999999</v>
+      </c>
+      <c r="O9" s="5">
+        <f>O25*O7</f>
+        <v>2601.7376000000004</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1652,7 +1667,9 @@
       <c r="L10" s="5">
         <v>1188</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <v>1185</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1728,7 +1745,9 @@
       <c r="L11" s="5">
         <v>239</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5">
+        <v>282</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1811,7 +1830,10 @@
         <f>SUM(L10:L11)</f>
         <v>1427</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <f>M11+M10</f>
+        <v>1467</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1895,7 +1917,10 @@
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <f>M9-M12</f>
+        <v>379</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1972,7 +1997,9 @@
       <c r="L14" s="5">
         <v>56</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <v>42</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
@@ -2055,7 +2082,10 @@
         <f>115+119</f>
         <v>234</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5">
+        <f>115+110</f>
+        <v>225</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2139,7 +2169,10 @@
         <f t="shared" si="17"/>
         <v>333</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5">
+        <f>M13+M14+M15</f>
+        <v>646</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -2216,7 +2249,9 @@
       <c r="L17" s="5">
         <v>68</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5">
+        <v>153</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="Q17" s="5"/>
@@ -2299,7 +2334,10 @@
         <f t="shared" si="20"/>
         <v>265</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <f>M16-M17</f>
+        <v>493</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="Q18" s="5"/>
@@ -2894,7 +2932,10 @@
         <f>L18/L20</f>
         <v>0.96715328467153283</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <f>M18/M20</f>
+        <v>1.7992700729927007</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2959,7 +3000,9 @@
       <c r="L20" s="5">
         <v>274</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5">
+        <v>274</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -3012,7 +3055,7 @@
         <v>6.4057461155086592E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:L23" si="25">I7/E7-1</f>
+        <f t="shared" ref="I23:K23" si="25">I7/E7-1</f>
         <v>1.0344827586206806E-2</v>
       </c>
       <c r="J23" s="7">
@@ -3027,9 +3070,18 @@
         <f>L7/H7-1</f>
         <v>0.10648849703815944</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="M23" s="7">
+        <f t="shared" ref="M23:O23" si="26">M7/I7-1</f>
+        <v>0.11055582642613349</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="26"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="26"/>
+        <v>0.12000000000000011</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="S23" s="13"/>
@@ -3087,40 +3139,47 @@
         <v>0.13471122837877456</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" ref="E25:K25" si="26">E9/E7</f>
+        <f t="shared" ref="E25:K25" si="27">E9/E7</f>
         <v>0.14125615763546798</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12736306349975762</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.16933797909407666</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.15828626532580245</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20745977571916138</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12442499719510827</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20125011838242257</v>
       </c>
       <c r="L25" s="7">
         <f>L9/L7</f>
         <v>0.18301792828685259</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="M25" s="7">
+        <f>M9/M7</f>
+        <v>0.20261222697837777</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.22</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3147,38 +3206,41 @@
         <v>-6.8748167692758724E-2</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" ref="E26:L26" si="27">E13/E7</f>
+        <f t="shared" ref="E26:M26" si="28">E13/E7</f>
         <v>-4.1995073891625614E-2</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.7203102278235582E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9313091090094575E-2</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.995040639206502E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.4236957581667475E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-4.0390440928980142E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6255327209016007E-2</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.3535856573705175E-3</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <f t="shared" si="28"/>
+        <v>4.1598068269125231E-2</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -3207,38 +3269,41 @@
         <v>0.16626506024096385</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" ref="E27:L27" si="28">E17/E16</f>
+        <f t="shared" ref="E27:M27" si="29">E17/E16</f>
         <v>-4.6923076923076925</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-11.266666666666667</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.0797546012269938</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.10309278350515463</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.2009987515605493</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18699186991869918</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.56401074306177257</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20420420420420421</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="7">
+        <f t="shared" si="29"/>
+        <v>0.23684210526315788</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -3275,18 +3340,21 @@
         <v>-0.21034946236559138</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28:L28" si="29">J12/F12-1</f>
+        <f t="shared" ref="J28:M28" si="30">J12/F12-1</f>
         <v>8.1737849779086824E-2</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.5925680159256883E-2</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-8.3391243919388458E-3</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7">
+        <f t="shared" si="30"/>
+        <v>0.24851063829787234</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3322,7 +3390,10 @@
         <f>L31-L40</f>
         <v>-24569</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5">
+        <f>M31-M40</f>
+        <v>-22143</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="W30" s="3"/>
@@ -3356,7 +3427,9 @@
       <c r="L31" s="5">
         <v>8107</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5">
+        <v>7892</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -3584,7 +3657,10 @@
         <f>8421+18708+5547</f>
         <v>32676</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="5">
+        <f>19603+5123+5309</f>
+        <v>30035</v>
+      </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -3806,7 +3882,6 @@
       <c r="L50" s="5">
         <v>265</v>
       </c>
-      <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -3846,7 +3921,9 @@
       <c r="L51" s="5">
         <v>264</v>
       </c>
-      <c r="M51" s="5"/>
+      <c r="M51" s="5">
+        <v>493</v>
+      </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -3890,7 +3967,10 @@
       <c r="L52" s="5">
         <v>149</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5">
+        <f>294-L52</f>
+        <v>145</v>
+      </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -3934,7 +4014,10 @@
       <c r="L53" s="5">
         <v>56</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="5">
+        <f>116-L53</f>
+        <v>60</v>
+      </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -3970,7 +4053,10 @@
       <c r="L54" s="5">
         <v>-21</v>
       </c>
-      <c r="M54" s="5"/>
+      <c r="M54" s="5">
+        <f>-22-L54</f>
+        <v>-1</v>
+      </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -4017,7 +4103,10 @@
         <f>-89-44</f>
         <v>-133</v>
       </c>
-      <c r="M55" s="5"/>
+      <c r="M55" s="5">
+        <f>-179-110-L55</f>
+        <v>-156</v>
+      </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -4063,7 +4152,10 @@
         <f>68-145</f>
         <v>-77</v>
       </c>
-      <c r="M56" s="5"/>
+      <c r="M56" s="5">
+        <f>221-363-L56</f>
+        <v>-65</v>
+      </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -4113,7 +4205,10 @@
         <f>918-432-345-269+1124-74</f>
         <v>922</v>
       </c>
-      <c r="M57" s="5"/>
+      <c r="M57" s="5">
+        <f>1031-883-647+207+1860-754-L57</f>
+        <v>-108</v>
+      </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -4166,7 +4261,10 @@
         <f>SUM(L51:L57)</f>
         <v>1160</v>
       </c>
-      <c r="M58" s="5"/>
+      <c r="M58" s="5">
+        <f>SUM(M51:M57)</f>
+        <v>368</v>
+      </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -4216,7 +4314,9 @@
       <c r="L60" s="5">
         <v>-186</v>
       </c>
-      <c r="M60" s="5"/>
+      <c r="M60" s="5">
+        <v>-359</v>
+      </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -4351,7 +4451,7 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>84</v>
       </c>
@@ -4361,7 +4461,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>85</v>
       </c>
@@ -4371,7 +4471,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -4381,7 +4481,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>58</v>
       </c>
@@ -4390,8 +4490,16 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="AA68" s="1">
+        <f>535-374</f>
+        <v>161</v>
+      </c>
+      <c r="AB68" s="1">
+        <f>1528-359</f>
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
@@ -4401,13 +4509,13 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>88</v>
       </c>
@@ -4417,7 +4525,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4426,60 +4534,66 @@
         <v>-814</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" ref="E73:L73" si="30">E58+E60</f>
+        <f t="shared" ref="E73:M73" si="31">E58+E60</f>
         <v>0</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-661</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>825</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>965</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>621</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>974</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" si="31"/>
+        <v>9</v>
       </c>
       <c r="V73" s="5">
         <f>V58+V60</f>
         <v>-627</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" ref="W73:X73" si="31">W58+W60</f>
+        <f t="shared" ref="W73:X73" si="32">W58+W60</f>
         <v>442</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1700</v>
       </c>
       <c r="Y73" s="3">
-        <v>2273</v>
+        <v>3400</v>
       </c>
       <c r="Z73" s="3">
-        <v>3133</v>
+        <f>1.5*Y73</f>
+        <v>5100</v>
       </c>
       <c r="AA73" s="3">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+        <f>1.4*Z73</f>
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
@@ -4501,18 +4615,18 @@
       </c>
       <c r="M74" s="5">
         <f>M7*0.08</f>
-        <v>695.69920000000002</v>
+        <v>728.88</v>
       </c>
       <c r="N74" s="5">
         <f>N7*0.12</f>
-        <v>1133.7336</v>
+        <v>1187.2116000000001</v>
       </c>
       <c r="O74" s="5">
         <f>O7*0.07</f>
-        <v>783.47780000000012</v>
-      </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+        <v>827.82560000000024</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
@@ -4521,27 +4635,27 @@
         <v>2.0355923939541685E-2</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:L75" si="32">J74/J7</f>
+        <f t="shared" ref="J75:L75" si="33">J74/J7</f>
         <v>0.10826882082351622</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>5.8812387536698554E-2</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.12126494023904383</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" ref="M75" si="33">M74/M7</f>
+        <f t="shared" ref="M75" si="34">M74/M7</f>
         <v>0.08</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" ref="N75" si="34">N74/N7</f>
-        <v>0.12</v>
+        <f t="shared" ref="N75" si="35">N74/N7</f>
+        <v>0.12000000000000001</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" ref="O75" si="35">O74/O7</f>
+        <f t="shared" ref="O75" si="36">O74/O7</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/gev.xlsx
+++ b/gev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FC393-3E5C-3348-B65A-5C43F55E80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4693E6-A594-5741-B2A0-B6EE75C444B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18000" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>tc={DF3A69DD-1198-42A5-A83A-5484CF412A11}</author>
   </authors>
   <commentList>
-    <comment ref="K68" authorId="0" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+    <comment ref="K67" authorId="0" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>Price</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>CEO: Safra Catz</t>
-  </si>
-  <si>
-    <t>Revenue CC y/y</t>
   </si>
   <si>
     <t>CFFI</t>
@@ -507,16 +504,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6747</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6747</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>133614</xdr:rowOff>
+      <xdr:rowOff>6615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -531,8 +528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9269280" y="0"/>
-          <a:ext cx="0" cy="12833614"/>
+          <a:off x="9901202" y="34637"/>
+          <a:ext cx="0" cy="12094705"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -565,7 +562,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>7350</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>50213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -911,7 +908,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K68" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+  <threadedComment ref="K67" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
     <text>Didn’t add up?</text>
   </threadedComment>
 </ThreadedComments>
@@ -921,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +934,7 @@
         <v>45443</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -954,7 +951,7 @@
         <v>272.93400000000003</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -975,7 +972,7 @@
         <v>10244</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -987,7 +984,7 @@
         <v>29432</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1023,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:FE1048576"/>
+  <dimension ref="A1:FE1048575"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA73" sqref="AA73"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1242,7 +1239,7 @@
     <row r="5" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="20">
@@ -1402,8 +1399,7 @@
         <v>9111</v>
       </c>
       <c r="N7" s="9">
-        <f>+J7*1.11</f>
-        <v>9893.43</v>
+        <v>9969</v>
       </c>
       <c r="O7" s="9">
         <f>+K7*1.12</f>
@@ -1496,7 +1492,7 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" ref="N8:O8" si="6">N7-N9</f>
-        <v>7865.2768500000002</v>
+        <v>8072</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="6"/>
@@ -1522,23 +1518,23 @@
       </c>
       <c r="Z8" s="3">
         <f t="shared" ref="Z8:AD8" si="7">Z7-Z9</f>
-        <v>34434.730800000005</v>
+        <v>34004.296665000009</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="7"/>
-        <v>38222.551188000012</v>
+        <v>37744.769298150015</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="7"/>
-        <v>42427.031818680014</v>
+        <v>41366.356023213018</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="7"/>
-        <v>47094.005318734824</v>
+        <v>45327.980119282263</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" si="7"/>
-        <v>52274.345903795664</v>
+        <v>50314.057932403324</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1586,11 +1582,10 @@
         <v>1846</v>
       </c>
       <c r="N9" s="5">
-        <f>N25*N7</f>
-        <v>2028.1531499999999</v>
+        <v>1897</v>
       </c>
       <c r="O9" s="5">
-        <f>O25*O7</f>
+        <f>O24*O7</f>
         <v>2601.7376000000004</v>
       </c>
       <c r="P9" s="5"/>
@@ -1613,29 +1608,29 @@
         <v>7755.5700000000015</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:AD9" si="9">0.2*Z7</f>
-        <v>8608.682700000003</v>
+        <f>0.21*Z7</f>
+        <v>9039.1168350000025</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="9"/>
-        <v>9555.637797000003</v>
+        <f>0.21*AA7</f>
+        <v>10033.419686850002</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="9"/>
-        <v>10606.757954670005</v>
+        <f>0.22*AB7</f>
+        <v>11667.433750137005</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="9"/>
-        <v>11773.501329683706</v>
+        <f>0.23*AC7</f>
+        <v>13539.526529136263</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="9"/>
-        <v>13068.586475948916</v>
+        <f>0.23*AD7</f>
+        <v>15028.874447341253</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -1670,7 +1665,9 @@
       <c r="M10" s="5">
         <v>1185</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>1221</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1691,23 +1688,23 @@
         <v>4817.28</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" ref="Z10:AD10" si="10">+Y10*1.02</f>
+        <f t="shared" ref="Z10:AD10" si="9">+Y10*1.02</f>
         <v>4913.6255999999994</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5011.8981119999999</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5112.1360742400002</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5214.3787957248005</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5318.6663716392968</v>
       </c>
     </row>
@@ -1748,7 +1745,9 @@
       <c r="M11" s="5">
         <v>282</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>310</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1769,23 +1768,23 @@
         <v>1021.2800000000001</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ref="Z11:AD11" si="11">+Y11*1.02</f>
+        <f t="shared" ref="Z11:AD11" si="10">+Y11*1.02</f>
         <v>1041.7056</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1062.539712</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1083.79050624</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1105.4663163647999</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1127.5756426920959</v>
       </c>
     </row>
@@ -1834,7 +1833,10 @@
         <f>M11+M10</f>
         <v>1467</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <f>+N11+N10</f>
+        <v>1531</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1856,23 +1858,23 @@
         <v>5838.5599999999995</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" ref="Z12:AD12" si="12">Z11+Z10</f>
+        <f t="shared" ref="Z12:AD12" si="11">Z11+Z10</f>
         <v>5955.3311999999996</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6074.4378239999996</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6195.9265804799998</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6319.8451120896007</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6446.242014331393</v>
       </c>
     </row>
@@ -1882,46 +1884,49 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:L13" si="13">D9-D12</f>
+        <f t="shared" ref="D13:L13" si="12">D9-D12</f>
         <v>-469</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-341</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-307</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-290</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>527</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-360</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>594</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="M13" s="5">
         <f>M9-M12</f>
         <v>379</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <f>+N9-N12</f>
+        <v>366</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1943,24 +1948,24 @@
         <v>1917.010000000002</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" ref="Z13:AD13" si="14">Z9-Z12</f>
-        <v>2653.3515000000034</v>
+        <f t="shared" ref="Z13:AD13" si="13">Z9-Z12</f>
+        <v>3083.7856350000029</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="14"/>
-        <v>3481.1999730000034</v>
+        <f t="shared" si="13"/>
+        <v>3958.9818628500025</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="14"/>
-        <v>4410.8313741900056</v>
+        <f t="shared" si="13"/>
+        <v>5471.5071696570049</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="14"/>
-        <v>5453.6562175941053</v>
+        <f t="shared" si="13"/>
+        <v>7219.6814170466623</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="14"/>
-        <v>6622.3444616175229</v>
+        <f t="shared" si="13"/>
+        <v>8582.6324330098614</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2000,7 +2005,9 @@
       <c r="M14" s="5">
         <v>42</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5">
+        <v>44</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2021,23 +2028,23 @@
         <v>123.60000000000001</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" ref="Z14:AD14" si="15">+Y14*1.03</f>
+        <f t="shared" ref="Z14:AD14" si="14">+Y14*1.03</f>
         <v>127.30800000000001</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>131.12724</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>135.06105719999999</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>139.112888916</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>143.28627558348001</v>
       </c>
     </row>
@@ -2086,7 +2093,10 @@
         <f>115+110</f>
         <v>225</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5">
+        <f>115+221</f>
+        <v>336</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -2108,23 +2118,23 @@
         <v>848</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" ref="Z15:AD15" si="16">800*1.06</f>
+        <f t="shared" ref="Z15:AD15" si="15">800*1.06</f>
         <v>848</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>848</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>848</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>848</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>848</v>
       </c>
     </row>
@@ -2138,19 +2148,19 @@
         <v>-415</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:L16" si="17">E13+E14+E15</f>
+        <f t="shared" ref="E16:L16" si="16">E13+E14+E15</f>
         <v>-26</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>326</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-97</v>
       </c>
       <c r="I16" s="5">
@@ -2158,22 +2168,25 @@
         <v>1602</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-123</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1117</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>333</v>
       </c>
       <c r="M16" s="5">
         <f>M13+M14+M15</f>
         <v>646</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5">
+        <f>+N13+N14+N15</f>
+        <v>746</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -2195,24 +2208,24 @@
         <v>2888.6100000000019</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" ref="Z16:AD16" si="18">Z13+Z14+Z15</f>
-        <v>3628.6595000000034</v>
+        <f t="shared" ref="Z16:AD16" si="17">Z13+Z14+Z15</f>
+        <v>4059.0936350000029</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="18"/>
-        <v>4460.3272130000032</v>
+        <f t="shared" si="17"/>
+        <v>4938.1091028500023</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="18"/>
-        <v>5393.8924313900052</v>
+        <f t="shared" si="17"/>
+        <v>6454.5682268570044</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="18"/>
-        <v>6440.7691065101053</v>
+        <f t="shared" si="17"/>
+        <v>8206.7943059626632</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="18"/>
-        <v>7613.6307372010033</v>
+        <f t="shared" si="17"/>
+        <v>9573.9187085933409</v>
       </c>
     </row>
     <row r="17" spans="2:161" x14ac:dyDescent="0.15">
@@ -2252,7 +2265,9 @@
       <c r="M17" s="5">
         <v>153</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5">
+        <v>293</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="3"/>
@@ -2273,72 +2288,75 @@
         <v>519.94980000000032</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AD17" si="19">0.18*Z16</f>
-        <v>653.15871000000061</v>
+        <f t="shared" ref="Z17:AD17" si="18">0.18*Z16</f>
+        <v>730.63685430000055</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="19"/>
-        <v>802.85889834000056</v>
+        <f t="shared" si="18"/>
+        <v>888.85963851300039</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="19"/>
-        <v>970.90063765020091</v>
+        <f t="shared" si="18"/>
+        <v>1161.8222808342607</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="19"/>
-        <v>1159.3384391718189</v>
+        <f t="shared" si="18"/>
+        <v>1477.2229750732793</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="19"/>
-        <v>1370.4535326961804</v>
+        <f t="shared" si="18"/>
+        <v>1723.3053675468013</v>
       </c>
     </row>
     <row r="18" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="20">D16-D17</f>
+        <f t="shared" ref="D18:L18" si="19">D16-D17</f>
         <v>-346</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-148</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-184</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>678</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-107</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1280</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-100</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>487</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>265</v>
       </c>
       <c r="M18" s="5">
         <f>M16-M17</f>
         <v>493</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5">
+        <f>+N16-N17</f>
+        <v>453</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -2359,548 +2377,548 @@
         <v>2368.6602000000016</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18:AD18" si="21">Z16-Z17</f>
-        <v>2975.5007900000028</v>
+        <f t="shared" ref="Z18:AD18" si="20">Z16-Z17</f>
+        <v>3328.4567807000021</v>
       </c>
       <c r="AA18" s="5">
-        <f t="shared" si="21"/>
-        <v>3657.4683146600028</v>
+        <f t="shared" si="20"/>
+        <v>4049.2494643370019</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="21"/>
-        <v>4422.9917937398041</v>
+        <f t="shared" si="20"/>
+        <v>5292.7459460227437</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" si="21"/>
-        <v>5281.4306673382862</v>
+        <f t="shared" si="20"/>
+        <v>6729.5713308893837</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" si="21"/>
-        <v>6243.1772045048228</v>
+        <f t="shared" si="20"/>
+        <v>7850.6133410465391</v>
       </c>
       <c r="AE18" s="3">
         <f>+AD18*1.01</f>
-        <v>6305.6089765498709</v>
+        <v>7929.1194744570048</v>
       </c>
       <c r="AF18" s="3">
         <f>+AE18*1.01</f>
-        <v>6368.6650663153696</v>
+        <v>8008.4106692015748</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" ref="AG18:CS18" si="22">+AF18*1.01</f>
-        <v>6432.3517169785237</v>
+        <f t="shared" ref="AG18:CS18" si="21">+AF18*1.01</f>
+        <v>8088.4947758935905</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="22"/>
-        <v>6496.6752341483088</v>
+        <f t="shared" si="21"/>
+        <v>8169.3797236525261</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="22"/>
-        <v>6561.6419864897916</v>
+        <f t="shared" si="21"/>
+        <v>8251.073520889051</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="22"/>
-        <v>6627.2584063546892</v>
+        <f t="shared" si="21"/>
+        <v>8333.5842560979418</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="22"/>
-        <v>6693.5309904182359</v>
+        <f t="shared" si="21"/>
+        <v>8416.9200986589221</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="22"/>
-        <v>6760.4663003224186</v>
+        <f t="shared" si="21"/>
+        <v>8501.0892996455113</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="22"/>
-        <v>6828.0709633256429</v>
+        <f t="shared" si="21"/>
+        <v>8586.1001926419667</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="22"/>
-        <v>6896.3516729588991</v>
+        <f t="shared" si="21"/>
+        <v>8671.9611945683864</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="22"/>
-        <v>6965.3151896884883</v>
+        <f t="shared" si="21"/>
+        <v>8758.6808065140704</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="22"/>
-        <v>7034.9683415853733</v>
+        <f t="shared" si="21"/>
+        <v>8846.267614579212</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="22"/>
-        <v>7105.3180250012274</v>
+        <f t="shared" si="21"/>
+        <v>8934.730290725005</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="22"/>
-        <v>7176.3712052512401</v>
+        <f t="shared" si="21"/>
+        <v>9024.0775936322552</v>
       </c>
       <c r="AS18" s="3">
-        <f t="shared" si="22"/>
-        <v>7248.1349173037524</v>
+        <f t="shared" si="21"/>
+        <v>9114.3183695685784</v>
       </c>
       <c r="AT18" s="3">
-        <f t="shared" si="22"/>
-        <v>7320.6162664767899</v>
+        <f t="shared" si="21"/>
+        <v>9205.4615532642638</v>
       </c>
       <c r="AU18" s="3">
-        <f t="shared" si="22"/>
-        <v>7393.8224291415581</v>
+        <f t="shared" si="21"/>
+        <v>9297.5161687969066</v>
       </c>
       <c r="AV18" s="3">
-        <f t="shared" si="22"/>
-        <v>7467.7606534329734</v>
+        <f t="shared" si="21"/>
+        <v>9390.491330484876</v>
       </c>
       <c r="AW18" s="3">
-        <f t="shared" si="22"/>
-        <v>7542.4382599673036</v>
+        <f t="shared" si="21"/>
+        <v>9484.3962437897244</v>
       </c>
       <c r="AX18" s="3">
-        <f t="shared" si="22"/>
-        <v>7617.8626425669763</v>
+        <f t="shared" si="21"/>
+        <v>9579.2402062276215</v>
       </c>
       <c r="AY18" s="3">
-        <f t="shared" si="22"/>
-        <v>7694.0412689926461</v>
+        <f t="shared" si="21"/>
+        <v>9675.0326082898973</v>
       </c>
       <c r="AZ18" s="3">
-        <f t="shared" si="22"/>
-        <v>7770.9816816825723</v>
+        <f t="shared" si="21"/>
+        <v>9771.7829343727972</v>
       </c>
       <c r="BA18" s="3">
-        <f t="shared" si="22"/>
-        <v>7848.6914984993982</v>
+        <f t="shared" si="21"/>
+        <v>9869.5007637165254</v>
       </c>
       <c r="BB18" s="3">
-        <f t="shared" si="22"/>
-        <v>7927.178413484392</v>
+        <f t="shared" si="21"/>
+        <v>9968.1957713536904</v>
       </c>
       <c r="BC18" s="3">
-        <f t="shared" si="22"/>
-        <v>8006.450197619236</v>
+        <f t="shared" si="21"/>
+        <v>10067.877729067228</v>
       </c>
       <c r="BD18" s="3">
-        <f t="shared" si="22"/>
-        <v>8086.5146995954283</v>
+        <f t="shared" si="21"/>
+        <v>10168.5565063579</v>
       </c>
       <c r="BE18" s="3">
-        <f t="shared" si="22"/>
-        <v>8167.3798465913824</v>
+        <f t="shared" si="21"/>
+        <v>10270.242071421479</v>
       </c>
       <c r="BF18" s="3">
-        <f t="shared" si="22"/>
-        <v>8249.0536450572963</v>
+        <f t="shared" si="21"/>
+        <v>10372.944492135694</v>
       </c>
       <c r="BG18" s="3">
-        <f t="shared" si="22"/>
-        <v>8331.5441815078702</v>
+        <f t="shared" si="21"/>
+        <v>10476.67393705705</v>
       </c>
       <c r="BH18" s="3">
-        <f t="shared" si="22"/>
-        <v>8414.8596233229491</v>
+        <f t="shared" si="21"/>
+        <v>10581.440676427621</v>
       </c>
       <c r="BI18" s="3">
-        <f t="shared" si="22"/>
-        <v>8499.008219556179</v>
+        <f t="shared" si="21"/>
+        <v>10687.255083191898</v>
       </c>
       <c r="BJ18" s="3">
-        <f t="shared" si="22"/>
-        <v>8583.9983017517407</v>
+        <f t="shared" si="21"/>
+        <v>10794.127634023816</v>
       </c>
       <c r="BK18" s="3">
-        <f t="shared" si="22"/>
-        <v>8669.8382847692574</v>
+        <f t="shared" si="21"/>
+        <v>10902.068910364054</v>
       </c>
       <c r="BL18" s="3">
-        <f t="shared" si="22"/>
-        <v>8756.5366676169506</v>
+        <f t="shared" si="21"/>
+        <v>11011.089599467696</v>
       </c>
       <c r="BM18" s="3">
-        <f t="shared" si="22"/>
-        <v>8844.1020342931206</v>
+        <f t="shared" si="21"/>
+        <v>11121.200495462374</v>
       </c>
       <c r="BN18" s="3">
-        <f t="shared" si="22"/>
-        <v>8932.5430546360512</v>
+        <f t="shared" si="21"/>
+        <v>11232.412500416998</v>
       </c>
       <c r="BO18" s="3">
-        <f t="shared" si="22"/>
-        <v>9021.868485182411</v>
+        <f t="shared" si="21"/>
+        <v>11344.736625421168</v>
       </c>
       <c r="BP18" s="3">
-        <f t="shared" si="22"/>
-        <v>9112.0871700342359</v>
+        <f t="shared" si="21"/>
+        <v>11458.18399167538</v>
       </c>
       <c r="BQ18" s="3">
-        <f t="shared" si="22"/>
-        <v>9203.2080417345787</v>
+        <f t="shared" si="21"/>
+        <v>11572.765831592134</v>
       </c>
       <c r="BR18" s="3">
-        <f t="shared" si="22"/>
-        <v>9295.2401221519249</v>
+        <f t="shared" si="21"/>
+        <v>11688.493489908056</v>
       </c>
       <c r="BS18" s="3">
-        <f t="shared" si="22"/>
-        <v>9388.1925233734437</v>
+        <f t="shared" si="21"/>
+        <v>11805.378424807137</v>
       </c>
       <c r="BT18" s="3">
-        <f t="shared" si="22"/>
-        <v>9482.0744486071781</v>
+        <f t="shared" si="21"/>
+        <v>11923.432209055209</v>
       </c>
       <c r="BU18" s="3">
-        <f t="shared" si="22"/>
-        <v>9576.8951930932508</v>
+        <f t="shared" si="21"/>
+        <v>12042.66653114576</v>
       </c>
       <c r="BV18" s="3">
-        <f t="shared" si="22"/>
-        <v>9672.6641450241841</v>
+        <f t="shared" si="21"/>
+        <v>12163.093196457217</v>
       </c>
       <c r="BW18" s="3">
-        <f t="shared" si="22"/>
-        <v>9769.3907864744269</v>
+        <f t="shared" si="21"/>
+        <v>12284.724128421789</v>
       </c>
       <c r="BX18" s="3">
-        <f t="shared" si="22"/>
-        <v>9867.0846943391716</v>
+        <f t="shared" si="21"/>
+        <v>12407.571369706007</v>
       </c>
       <c r="BY18" s="3">
-        <f t="shared" si="22"/>
-        <v>9965.7555412825641</v>
+        <f t="shared" si="21"/>
+        <v>12531.647083403068</v>
       </c>
       <c r="BZ18" s="3">
-        <f t="shared" si="22"/>
-        <v>10065.413096695389</v>
+        <f t="shared" si="21"/>
+        <v>12656.963554237098</v>
       </c>
       <c r="CA18" s="3">
-        <f t="shared" si="22"/>
-        <v>10166.067227662343</v>
+        <f t="shared" si="21"/>
+        <v>12783.533189779469</v>
       </c>
       <c r="CB18" s="3">
-        <f t="shared" si="22"/>
-        <v>10267.727899938965</v>
+        <f t="shared" si="21"/>
+        <v>12911.368521677265</v>
       </c>
       <c r="CC18" s="3">
-        <f t="shared" si="22"/>
-        <v>10370.405178938356</v>
+        <f t="shared" si="21"/>
+        <v>13040.482206894038</v>
       </c>
       <c r="CD18" s="3">
-        <f t="shared" si="22"/>
-        <v>10474.109230727739</v>
+        <f t="shared" si="21"/>
+        <v>13170.887028962978</v>
       </c>
       <c r="CE18" s="3">
-        <f t="shared" si="22"/>
-        <v>10578.850323035016</v>
+        <f t="shared" si="21"/>
+        <v>13302.595899252608</v>
       </c>
       <c r="CF18" s="3">
-        <f t="shared" si="22"/>
-        <v>10684.638826265367</v>
+        <f t="shared" si="21"/>
+        <v>13435.621858245135</v>
       </c>
       <c r="CG18" s="3">
-        <f t="shared" si="22"/>
-        <v>10791.48521452802</v>
+        <f t="shared" si="21"/>
+        <v>13569.978076827587</v>
       </c>
       <c r="CH18" s="3">
-        <f t="shared" si="22"/>
-        <v>10899.400066673301</v>
+        <f t="shared" si="21"/>
+        <v>13705.677857595863</v>
       </c>
       <c r="CI18" s="3">
-        <f t="shared" si="22"/>
-        <v>11008.394067340034</v>
+        <f t="shared" si="21"/>
+        <v>13842.734636171823</v>
       </c>
       <c r="CJ18" s="3">
-        <f t="shared" si="22"/>
-        <v>11118.478008013435</v>
+        <f t="shared" si="21"/>
+        <v>13981.161982533542</v>
       </c>
       <c r="CK18" s="3">
-        <f t="shared" si="22"/>
-        <v>11229.66278809357</v>
+        <f t="shared" si="21"/>
+        <v>14120.973602358878</v>
       </c>
       <c r="CL18" s="3">
-        <f t="shared" si="22"/>
-        <v>11341.959415974507</v>
+        <f t="shared" si="21"/>
+        <v>14262.183338382467</v>
       </c>
       <c r="CM18" s="3">
-        <f t="shared" si="22"/>
-        <v>11455.379010134251</v>
+        <f t="shared" si="21"/>
+        <v>14404.805171766291</v>
       </c>
       <c r="CN18" s="3">
-        <f t="shared" si="22"/>
-        <v>11569.932800235594</v>
+        <f t="shared" si="21"/>
+        <v>14548.853223483955</v>
       </c>
       <c r="CO18" s="3">
-        <f t="shared" si="22"/>
-        <v>11685.63212823795</v>
+        <f t="shared" si="21"/>
+        <v>14694.341755718795</v>
       </c>
       <c r="CP18" s="3">
-        <f t="shared" si="22"/>
-        <v>11802.48844952033</v>
+        <f t="shared" si="21"/>
+        <v>14841.285173275983</v>
       </c>
       <c r="CQ18" s="3">
-        <f t="shared" si="22"/>
-        <v>11920.513334015533</v>
+        <f t="shared" si="21"/>
+        <v>14989.698025008744</v>
       </c>
       <c r="CR18" s="3">
-        <f t="shared" si="22"/>
-        <v>12039.718467355689</v>
+        <f t="shared" si="21"/>
+        <v>15139.59500525883</v>
       </c>
       <c r="CS18" s="3">
-        <f t="shared" si="22"/>
-        <v>12160.115652029246</v>
+        <f t="shared" si="21"/>
+        <v>15290.990955311419</v>
       </c>
       <c r="CT18" s="3">
-        <f t="shared" ref="CT18:FE18" si="23">+CS18*1.01</f>
-        <v>12281.71680854954</v>
+        <f t="shared" ref="CT18:FE18" si="22">+CS18*1.01</f>
+        <v>15443.900864864534</v>
       </c>
       <c r="CU18" s="3">
-        <f t="shared" si="23"/>
-        <v>12404.533976635035</v>
+        <f t="shared" si="22"/>
+        <v>15598.33987351318</v>
       </c>
       <c r="CV18" s="3">
-        <f t="shared" si="23"/>
-        <v>12528.579316401385</v>
+        <f t="shared" si="22"/>
+        <v>15754.323272248312</v>
       </c>
       <c r="CW18" s="3">
-        <f t="shared" si="23"/>
-        <v>12653.865109565399</v>
+        <f t="shared" si="22"/>
+        <v>15911.866504970794</v>
       </c>
       <c r="CX18" s="3">
-        <f t="shared" si="23"/>
-        <v>12780.403760661053</v>
+        <f t="shared" si="22"/>
+        <v>16070.985170020502</v>
       </c>
       <c r="CY18" s="3">
-        <f t="shared" si="23"/>
-        <v>12908.207798267664</v>
+        <f t="shared" si="22"/>
+        <v>16231.695021720707</v>
       </c>
       <c r="CZ18" s="3">
-        <f t="shared" si="23"/>
-        <v>13037.289876250341</v>
+        <f t="shared" si="22"/>
+        <v>16394.011971937914</v>
       </c>
       <c r="DA18" s="3">
-        <f t="shared" si="23"/>
-        <v>13167.662775012845</v>
+        <f t="shared" si="22"/>
+        <v>16557.952091657295</v>
       </c>
       <c r="DB18" s="3">
-        <f t="shared" si="23"/>
-        <v>13299.339402762973</v>
+        <f t="shared" si="22"/>
+        <v>16723.531612573868</v>
       </c>
       <c r="DC18" s="3">
-        <f t="shared" si="23"/>
-        <v>13432.332796790603</v>
+        <f t="shared" si="22"/>
+        <v>16890.766928699606</v>
       </c>
       <c r="DD18" s="3">
-        <f t="shared" si="23"/>
-        <v>13566.656124758509</v>
+        <f t="shared" si="22"/>
+        <v>17059.674597986603</v>
       </c>
       <c r="DE18" s="3">
-        <f t="shared" si="23"/>
-        <v>13702.322686006093</v>
+        <f t="shared" si="22"/>
+        <v>17230.271343966469</v>
       </c>
       <c r="DF18" s="3">
-        <f t="shared" si="23"/>
-        <v>13839.345912866154</v>
+        <f t="shared" si="22"/>
+        <v>17402.574057406135</v>
       </c>
       <c r="DG18" s="3">
-        <f t="shared" si="23"/>
-        <v>13977.739371994816</v>
+        <f t="shared" si="22"/>
+        <v>17576.599797980198</v>
       </c>
       <c r="DH18" s="3">
-        <f t="shared" si="23"/>
-        <v>14117.516765714765</v>
+        <f t="shared" si="22"/>
+        <v>17752.365795959999</v>
       </c>
       <c r="DI18" s="3">
-        <f t="shared" si="23"/>
-        <v>14258.691933371912</v>
+        <f t="shared" si="22"/>
+        <v>17929.889453919597</v>
       </c>
       <c r="DJ18" s="3">
-        <f t="shared" si="23"/>
-        <v>14401.278852705631</v>
+        <f t="shared" si="22"/>
+        <v>18109.188348458792</v>
       </c>
       <c r="DK18" s="3">
-        <f t="shared" si="23"/>
-        <v>14545.291641232687</v>
+        <f t="shared" si="22"/>
+        <v>18290.280231943379</v>
       </c>
       <c r="DL18" s="3">
-        <f t="shared" si="23"/>
-        <v>14690.744557645014</v>
+        <f t="shared" si="22"/>
+        <v>18473.183034262813</v>
       </c>
       <c r="DM18" s="3">
-        <f t="shared" si="23"/>
-        <v>14837.652003221463</v>
+        <f t="shared" si="22"/>
+        <v>18657.914864605442</v>
       </c>
       <c r="DN18" s="3">
-        <f t="shared" si="23"/>
-        <v>14986.028523253677</v>
+        <f t="shared" si="22"/>
+        <v>18844.494013251497</v>
       </c>
       <c r="DO18" s="3">
-        <f t="shared" si="23"/>
-        <v>15135.888808486214</v>
+        <f t="shared" si="22"/>
+        <v>19032.938953384011</v>
       </c>
       <c r="DP18" s="3">
-        <f t="shared" si="23"/>
-        <v>15287.247696571076</v>
+        <f t="shared" si="22"/>
+        <v>19223.268342917851</v>
       </c>
       <c r="DQ18" s="3">
-        <f t="shared" si="23"/>
-        <v>15440.120173536787</v>
+        <f t="shared" si="22"/>
+        <v>19415.501026347029</v>
       </c>
       <c r="DR18" s="3">
-        <f t="shared" si="23"/>
-        <v>15594.521375272156</v>
+        <f t="shared" si="22"/>
+        <v>19609.6560366105</v>
       </c>
       <c r="DS18" s="3">
-        <f t="shared" si="23"/>
-        <v>15750.466589024878</v>
+        <f t="shared" si="22"/>
+        <v>19805.752596976607</v>
       </c>
       <c r="DT18" s="3">
-        <f t="shared" si="23"/>
-        <v>15907.971254915126</v>
+        <f t="shared" si="22"/>
+        <v>20003.810122946372</v>
       </c>
       <c r="DU18" s="3">
-        <f t="shared" si="23"/>
-        <v>16067.050967464278</v>
+        <f t="shared" si="22"/>
+        <v>20203.848224175836</v>
       </c>
       <c r="DV18" s="3">
-        <f t="shared" si="23"/>
-        <v>16227.721477138921</v>
+        <f t="shared" si="22"/>
+        <v>20405.886706417594</v>
       </c>
       <c r="DW18" s="3">
-        <f t="shared" si="23"/>
-        <v>16389.99869191031</v>
+        <f t="shared" si="22"/>
+        <v>20609.945573481771</v>
       </c>
       <c r="DX18" s="3">
-        <f t="shared" si="23"/>
-        <v>16553.898678829413</v>
+        <f t="shared" si="22"/>
+        <v>20816.045029216588</v>
       </c>
       <c r="DY18" s="3">
-        <f t="shared" si="23"/>
-        <v>16719.437665617708</v>
+        <f t="shared" si="22"/>
+        <v>21024.205479508753</v>
       </c>
       <c r="DZ18" s="3">
-        <f t="shared" si="23"/>
-        <v>16886.632042273886</v>
+        <f t="shared" si="22"/>
+        <v>21234.447534303839</v>
       </c>
       <c r="EA18" s="3">
-        <f t="shared" si="23"/>
-        <v>17055.498362696624</v>
+        <f t="shared" si="22"/>
+        <v>21446.792009646877</v>
       </c>
       <c r="EB18" s="3">
-        <f t="shared" si="23"/>
-        <v>17226.053346323592</v>
+        <f t="shared" si="22"/>
+        <v>21661.259929743344</v>
       </c>
       <c r="EC18" s="3">
-        <f t="shared" si="23"/>
-        <v>17398.313879786827</v>
+        <f t="shared" si="22"/>
+        <v>21877.872529040778</v>
       </c>
       <c r="ED18" s="3">
-        <f t="shared" si="23"/>
-        <v>17572.297018584697</v>
+        <f t="shared" si="22"/>
+        <v>22096.651254331187</v>
       </c>
       <c r="EE18" s="3">
-        <f t="shared" si="23"/>
-        <v>17748.019988770546</v>
+        <f t="shared" si="22"/>
+        <v>22317.6177668745</v>
       </c>
       <c r="EF18" s="3">
-        <f t="shared" si="23"/>
-        <v>17925.50018865825</v>
+        <f t="shared" si="22"/>
+        <v>22540.793944543246</v>
       </c>
       <c r="EG18" s="3">
-        <f t="shared" si="23"/>
-        <v>18104.755190544834</v>
+        <f t="shared" si="22"/>
+        <v>22766.201883988677</v>
       </c>
       <c r="EH18" s="3">
-        <f t="shared" si="23"/>
-        <v>18285.802742450283</v>
+        <f t="shared" si="22"/>
+        <v>22993.863902828565</v>
       </c>
       <c r="EI18" s="3">
-        <f t="shared" si="23"/>
-        <v>18468.660769874787</v>
+        <f t="shared" si="22"/>
+        <v>23223.80254185685</v>
       </c>
       <c r="EJ18" s="3">
-        <f t="shared" si="23"/>
-        <v>18653.347377573533</v>
+        <f t="shared" si="22"/>
+        <v>23456.04056727542</v>
       </c>
       <c r="EK18" s="3">
-        <f t="shared" si="23"/>
-        <v>18839.88085134927</v>
+        <f t="shared" si="22"/>
+        <v>23690.600972948174</v>
       </c>
       <c r="EL18" s="3">
-        <f t="shared" si="23"/>
-        <v>19028.279659862761</v>
+        <f t="shared" si="22"/>
+        <v>23927.506982677656</v>
       </c>
       <c r="EM18" s="3">
-        <f t="shared" si="23"/>
-        <v>19218.56245646139</v>
+        <f t="shared" si="22"/>
+        <v>24166.782052504434</v>
       </c>
       <c r="EN18" s="3">
-        <f t="shared" si="23"/>
-        <v>19410.748081026006</v>
+        <f t="shared" si="22"/>
+        <v>24408.449873029476</v>
       </c>
       <c r="EO18" s="3">
-        <f t="shared" si="23"/>
-        <v>19604.855561836266</v>
+        <f t="shared" si="22"/>
+        <v>24652.534371759772</v>
       </c>
       <c r="EP18" s="3">
-        <f t="shared" si="23"/>
-        <v>19800.904117454629</v>
+        <f t="shared" si="22"/>
+        <v>24899.059715477371</v>
       </c>
       <c r="EQ18" s="3">
-        <f t="shared" si="23"/>
-        <v>19998.913158629177</v>
+        <f t="shared" si="22"/>
+        <v>25148.050312632146</v>
       </c>
       <c r="ER18" s="3">
-        <f t="shared" si="23"/>
-        <v>20198.902290215468</v>
+        <f t="shared" si="22"/>
+        <v>25399.530815758466</v>
       </c>
       <c r="ES18" s="3">
-        <f t="shared" si="23"/>
-        <v>20400.891313117623</v>
+        <f t="shared" si="22"/>
+        <v>25653.52612391605</v>
       </c>
       <c r="ET18" s="3">
-        <f t="shared" si="23"/>
-        <v>20604.900226248799</v>
+        <f t="shared" si="22"/>
+        <v>25910.061385155212</v>
       </c>
       <c r="EU18" s="3">
-        <f t="shared" si="23"/>
-        <v>20810.949228511286</v>
+        <f t="shared" si="22"/>
+        <v>26169.161999006763</v>
       </c>
       <c r="EV18" s="3">
-        <f t="shared" si="23"/>
-        <v>21019.058720796398</v>
+        <f t="shared" si="22"/>
+        <v>26430.853618996829</v>
       </c>
       <c r="EW18" s="3">
-        <f t="shared" si="23"/>
-        <v>21229.249308004361</v>
+        <f t="shared" si="22"/>
+        <v>26695.162155186797</v>
       </c>
       <c r="EX18" s="3">
-        <f t="shared" si="23"/>
-        <v>21441.541801084404</v>
+        <f t="shared" si="22"/>
+        <v>26962.113776738664</v>
       </c>
       <c r="EY18" s="3">
-        <f t="shared" si="23"/>
-        <v>21655.957219095249</v>
+        <f t="shared" si="22"/>
+        <v>27231.734914506051</v>
       </c>
       <c r="EZ18" s="3">
-        <f t="shared" si="23"/>
-        <v>21872.516791286202</v>
+        <f t="shared" si="22"/>
+        <v>27504.052263651112</v>
       </c>
       <c r="FA18" s="3">
-        <f t="shared" si="23"/>
-        <v>22091.241959199066</v>
+        <f t="shared" si="22"/>
+        <v>27779.092786287623</v>
       </c>
       <c r="FB18" s="3">
-        <f t="shared" si="23"/>
-        <v>22312.154378791056</v>
+        <f t="shared" si="22"/>
+        <v>28056.883714150499</v>
       </c>
       <c r="FC18" s="3">
-        <f t="shared" si="23"/>
-        <v>22535.275922578967</v>
+        <f t="shared" si="22"/>
+        <v>28337.452551292005</v>
       </c>
       <c r="FD18" s="3">
-        <f t="shared" si="23"/>
-        <v>22760.628681804756</v>
+        <f t="shared" si="22"/>
+        <v>28620.827076804926</v>
       </c>
       <c r="FE18" s="3">
-        <f t="shared" si="23"/>
-        <v>22988.234968622804</v>
+        <f t="shared" si="22"/>
+        <v>28907.035347572975</v>
       </c>
     </row>
     <row r="19" spans="2:161" x14ac:dyDescent="0.15">
@@ -2913,30 +2931,33 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <f>H18/H20</f>
+        <f t="shared" ref="H19:M19" si="23">H18/H20</f>
         <v>-0.39051094890510951</v>
       </c>
       <c r="I19" s="6">
-        <f>I18/I20</f>
+        <f t="shared" si="23"/>
         <v>4.6715328467153281</v>
       </c>
       <c r="J19" s="6">
-        <f>J18/J20</f>
+        <f t="shared" si="23"/>
         <v>-0.36496350364963503</v>
       </c>
       <c r="K19" s="6">
-        <f>K18/K20</f>
+        <f t="shared" si="23"/>
         <v>1.7773722627737227</v>
       </c>
       <c r="L19" s="6">
-        <f>L18/L20</f>
+        <f t="shared" si="23"/>
         <v>0.96715328467153283</v>
       </c>
       <c r="M19" s="6">
-        <f>M18/M20</f>
+        <f t="shared" si="23"/>
         <v>1.7992700729927007</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6">
+        <f>+N18/N20</f>
+        <v>1.6472727272727272</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2958,23 +2979,23 @@
       </c>
       <c r="Z19" s="24">
         <f t="shared" ref="Z19:AD19" si="24">Z18/Z20</f>
-        <v>10.859491934306579</v>
+        <v>12.147652484306578</v>
       </c>
       <c r="AA19" s="24">
         <f t="shared" si="24"/>
-        <v>13.348424506058404</v>
+        <v>14.778282716558401</v>
       </c>
       <c r="AB19" s="24">
         <f t="shared" si="24"/>
-        <v>16.142305816568626</v>
+        <v>19.316591043878628</v>
       </c>
       <c r="AC19" s="24">
         <f t="shared" si="24"/>
-        <v>19.275294406344109</v>
+        <v>24.560479309815268</v>
       </c>
       <c r="AD19" s="24">
         <f t="shared" si="24"/>
-        <v>22.785318264616141</v>
+        <v>28.651873507469119</v>
       </c>
     </row>
     <row r="20" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3003,7 +3024,9 @@
       <c r="M20" s="5">
         <v>274</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5">
+        <v>275</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -3076,7 +3099,7 @@
       </c>
       <c r="N23" s="7">
         <f t="shared" si="26"/>
-        <v>0.1100000000000001</v>
+        <v>0.11847862672500842</v>
       </c>
       <c r="O23" s="7">
         <f t="shared" si="26"/>
@@ -3090,96 +3113,173 @@
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
+      <c r="Y23" s="13">
+        <f>+Y7/X7-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" ref="Z23:AD23" si="27">+Z7/Y7-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="27"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="27"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="27"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" si="27"/>
+        <v>0.1100000000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="D24" s="7">
+        <f>D9/D7</f>
+        <v>0.13471122837877456</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E9/E7</f>
+        <v>0.14125615763546798</v>
+      </c>
+      <c r="F24" s="7">
+        <f>F9/F7</f>
+        <v>0.12736306349975762</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G9/G7</f>
+        <v>0.16933797909407666</v>
+      </c>
+      <c r="H24" s="7">
+        <f>H9/H7</f>
+        <v>0.15828626532580245</v>
+      </c>
+      <c r="I24" s="7">
+        <f>I9/I7</f>
+        <v>0.20745977571916138</v>
+      </c>
+      <c r="J24" s="7">
+        <f>J9/J7</f>
+        <v>0.12442499719510827</v>
+      </c>
+      <c r="K24" s="7">
+        <f>K9/K7</f>
+        <v>0.20125011838242257</v>
+      </c>
+      <c r="L24" s="7">
+        <f>L9/L7</f>
+        <v>0.18301792828685259</v>
+      </c>
+      <c r="M24" s="7">
+        <f>M9/M7</f>
+        <v>0.20261222697837777</v>
+      </c>
+      <c r="N24" s="7">
+        <f>+N9/N7</f>
+        <v>0.19028989868592638</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.22</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7">
+        <f>+W9/W7</f>
+        <v>0.14495020909172959</v>
+      </c>
+      <c r="X24" s="7">
+        <f>+X9/X7</f>
+        <v>0.17418062115357091</v>
+      </c>
+      <c r="Y24" s="7">
+        <f>+Y9/Y7</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" ref="Z24:AD24" si="28">+Z9/Z7</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="28"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="28"/>
+        <v>0.22</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="28"/>
+        <v>0.23</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="28"/>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="25" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
-        <f>D9/D7</f>
-        <v>0.13471122837877456</v>
+        <f>D13/D7</f>
+        <v>-6.8748167692758724E-2</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" ref="E25:K25" si="27">E9/E7</f>
-        <v>0.14125615763546798</v>
+        <f>E13/E7</f>
+        <v>-4.1995073891625614E-2</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.12736306349975762</v>
+        <f>F13/F7</f>
+        <v>-3.7203102278235582E-2</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.16933797909407666</v>
+        <f>G13/G7</f>
+        <v>1.9313091090094575E-2</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.15828626532580245</v>
+        <f>H13/H7</f>
+        <v>-3.995040639206502E-2</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.20745977571916138</v>
+        <f>I13/I7</f>
+        <v>6.4236957581667475E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.12442499719510827</v>
+        <f>J13/J7</f>
+        <v>-4.0390440928980142E-2</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="27"/>
-        <v>0.20125011838242257</v>
+        <f>K13/K7</f>
+        <v>5.6255327209016007E-2</v>
       </c>
       <c r="L25" s="7">
-        <f>L9/L7</f>
-        <v>0.18301792828685259</v>
+        <f>L13/L7</f>
+        <v>5.3535856573705175E-3</v>
       </c>
       <c r="M25" s="7">
-        <f>M9/M7</f>
-        <v>0.20261222697837777</v>
+        <f>M13/M7</f>
+        <v>4.1598068269125231E-2</v>
       </c>
       <c r="N25" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0.22</v>
-      </c>
+        <f t="shared" ref="N25:O25" si="29">N13/N7</f>
+        <v>3.6713812819741197E-2</v>
+      </c>
+      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3187,61 +3287,88 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+      <c r="W25" s="7">
+        <f>+W13/W7</f>
+        <v>-2.7768585095821172E-2</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" ref="X25:AD25" si="30">+X13/X7</f>
+        <v>1.3482181193645342E-2</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="30"/>
+        <v>4.943569589340311E-2</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="30"/>
+        <v>7.1643612442586657E-2</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="30"/>
+        <v>8.2861697920214736E-2</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="30"/>
+        <v>0.10317020889965681</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="30"/>
+        <v>0.12264289466454951</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="30"/>
+        <v>0.13134752482688336</v>
+      </c>
     </row>
     <row r="26" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
-        <f>D13/D7</f>
-        <v>-6.8748167692758724E-2</v>
+        <f>D17/D16</f>
+        <v>0.16626506024096385</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" ref="E26:M26" si="28">E13/E7</f>
-        <v>-4.1995073891625614E-2</v>
+        <f>E17/E16</f>
+        <v>-4.6923076923076925</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="28"/>
-        <v>-3.7203102278235582E-2</v>
+        <f>F17/F16</f>
+        <v>-11.266666666666667</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="28"/>
-        <v>1.9313091090094575E-2</v>
+        <f>G17/G16</f>
+        <v>-1.0797546012269938</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="28"/>
-        <v>-3.995040639206502E-2</v>
+        <f>H17/H16</f>
+        <v>-0.10309278350515463</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="28"/>
-        <v>6.4236957581667475E-2</v>
+        <f>I17/I16</f>
+        <v>0.2009987515605493</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="28"/>
-        <v>-4.0390440928980142E-2</v>
+        <f>J17/J16</f>
+        <v>0.18699186991869918</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="28"/>
-        <v>5.6255327209016007E-2</v>
+        <f>K17/K16</f>
+        <v>0.56401074306177257</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="28"/>
-        <v>5.3535856573705175E-3</v>
+        <f>L17/L16</f>
+        <v>0.20420420420420421</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="28"/>
-        <v>4.1598068269125231E-2</v>
-      </c>
-      <c r="N26" s="7"/>
+        <f>M17/M16</f>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="N26" s="7">
+        <f>N17/N16</f>
+        <v>0.39276139410187666</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -3261,50 +3388,41 @@
     </row>
     <row r="27" spans="2:161" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <f>D17/D16</f>
-        <v>0.16626506024096385</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" ref="E27:M27" si="29">E17/E16</f>
-        <v>-4.6923076923076925</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="29"/>
-        <v>-11.266666666666667</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="29"/>
-        <v>-1.0797546012269938</v>
-      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <f t="shared" si="29"/>
-        <v>-0.10309278350515463</v>
+        <f>H12/D12-1</f>
+        <v>3.6743515850144126E-2</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="29"/>
-        <v>0.2009987515605493</v>
+        <f>I12/E12-1</f>
+        <v>-0.21034946236559138</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="29"/>
-        <v>0.18699186991869918</v>
+        <f>J12/F12-1</f>
+        <v>8.1737849779086824E-2</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="29"/>
-        <v>0.56401074306177257</v>
+        <f>K12/G12-1</f>
+        <v>1.5925680159256883E-2</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="29"/>
-        <v>0.20420420420420421</v>
+        <f>L12/H12-1</f>
+        <v>-8.3391243919388458E-3</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="29"/>
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="N27" s="7"/>
+        <f>M12/I12-1</f>
+        <v>0.24851063829787234</v>
+      </c>
+      <c r="N27" s="7">
+        <f>N12/J12-1</f>
+        <v>4.2205582028590927E-2</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3322,60 +3440,47 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
     </row>
-    <row r="28" spans="2:161" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
-        <f>H12/D12-1</f>
-        <v>3.6743515850144126E-2</v>
-      </c>
-      <c r="I28" s="7">
-        <f>I12/E12-1</f>
-        <v>-0.21034946236559138</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" ref="J28:M28" si="30">J12/F12-1</f>
-        <v>8.1737849779086824E-2</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" si="30"/>
-        <v>1.5925680159256883E-2</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="30"/>
-        <v>-8.3391243919388458E-3</v>
-      </c>
-      <c r="M28" s="7">
-        <f t="shared" si="30"/>
-        <v>0.24851063829787234</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-    </row>
-    <row r="30" spans="2:161" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    <row r="29" spans="2:161" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <f>L30-L39</f>
+        <v>-24569</v>
+      </c>
+      <c r="M29" s="5">
+        <f>M30-M39</f>
+        <v>-22143</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AF29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3387,33 +3492,29 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5">
-        <f>L31-L40</f>
-        <v>-24569</v>
+        <v>8107</v>
       </c>
       <c r="M30" s="5">
-        <f>M31-M40</f>
-        <v>-22143</v>
+        <v>7892</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
       <c r="AF30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AG30" s="14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3424,12 +3525,8 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5">
-        <v>8107</v>
-      </c>
-      <c r="M31" s="5">
-        <v>7892</v>
-      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -3439,15 +3536,15 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="AF31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG31" s="14">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32" spans="2:161" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3469,15 +3566,16 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="AF32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG32" s="14">
-        <v>0.06</v>
+        <v>67</v>
+      </c>
+      <c r="AG32" s="3">
+        <f>NPV(AG31,Y18:DO18)-L29</f>
+        <v>158199.15305165167</v>
       </c>
     </row>
     <row r="33" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3499,16 +3597,16 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="AF33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG33" s="3">
-        <f>NPV(AG32,Y18:DO18)-L30</f>
-        <v>132072.09648361156</v>
+        <v>69</v>
+      </c>
+      <c r="AG33" s="15">
+        <f>AG32/274</f>
+        <v>577.36917172135645</v>
       </c>
     </row>
     <row r="34" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3530,16 +3628,16 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="AF34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG34" s="15">
-        <f>AG33/274</f>
-        <v>482.01495067011518</v>
+        <v>70</v>
+      </c>
+      <c r="AG34" s="14">
+        <f>AG33/574.6-1</f>
+        <v>4.8193033786223527E-3</v>
       </c>
     </row>
     <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3560,17 +3658,10 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="AF35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG35" s="14">
-        <f>AG34/574.6-1</f>
-        <v>-0.16112956722917648</v>
-      </c>
     </row>
     <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3594,7 +3685,7 @@
     </row>
     <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3616,33 +3707,39 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+    <row r="39" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
+        <f>8421+18708+5547</f>
+        <v>32676</v>
+      </c>
+      <c r="M39" s="5">
+        <f>19603+5123+5309</f>
+        <v>30035</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
     </row>
     <row r="40" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3653,14 +3750,8 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="5">
-        <f>8421+18708+5547</f>
-        <v>32676</v>
-      </c>
-      <c r="M40" s="5">
-        <f>19603+5123+5309</f>
-        <v>30035</v>
-      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -3672,7 +3763,7 @@
     </row>
     <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3696,7 +3787,7 @@
     </row>
     <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3720,7 +3811,7 @@
     </row>
     <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -3744,7 +3835,7 @@
     </row>
     <row r="44" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3768,7 +3859,7 @@
     </row>
     <row r="45" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3792,7 +3883,7 @@
     </row>
     <row r="46" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3816,7 +3907,7 @@
     </row>
     <row r="47" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3838,49 +3929,67 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
+    <row r="49" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5">
+        <v>-107</v>
+      </c>
+      <c r="I49" s="5">
+        <v>465</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
+        <v>265</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
     </row>
     <row r="50" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="5">
+        <v>-346</v>
+      </c>
+      <c r="E50" s="5">
+        <f>-495-D50</f>
+        <v>-149</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5">
-        <v>-107</v>
+        <v>-106</v>
       </c>
       <c r="I50" s="5">
-        <v>465</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+        <v>1280</v>
+      </c>
+      <c r="J50" s="5">
+        <f>1075-I50-H50</f>
+        <v>-99</v>
+      </c>
+      <c r="K50" s="5">
+        <v>487</v>
+      </c>
       <c r="L50" s="5">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="M50" s="5">
+        <v>493</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -3889,40 +3998,45 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
+      <c r="V50" s="5">
+        <v>-2722</v>
+      </c>
+      <c r="W50" s="3">
+        <v>-474</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1559</v>
+      </c>
     </row>
     <row r="51" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5">
-        <v>-346</v>
+        <v>176</v>
       </c>
       <c r="E51" s="5">
-        <f>-495-D51</f>
-        <v>-149</v>
+        <f>347-D51</f>
+        <v>171</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <v>-106</v>
+        <v>188</v>
       </c>
       <c r="I51" s="5">
-        <v>1280</v>
-      </c>
-      <c r="J51" s="5">
-        <f>1075-I51-H51</f>
-        <v>-99</v>
-      </c>
-      <c r="K51" s="5">
-        <v>487</v>
-      </c>
+        <f>379-H51</f>
+        <v>191</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="5">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="M51" s="5">
-        <v>493</v>
+        <f>294-L51</f>
+        <v>145</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -3932,44 +4046,44 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5">
-        <v>-2722</v>
+        <v>779</v>
       </c>
       <c r="W51" s="3">
-        <v>-474</v>
+        <v>724</v>
       </c>
       <c r="X51" s="3">
-        <v>1559</v>
+        <v>895</v>
       </c>
     </row>
     <row r="52" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5">
-        <f>347-D52</f>
-        <v>171</v>
+        <f>123-D52</f>
+        <v>68</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="I52" s="5">
-        <f>379-H52</f>
-        <v>191</v>
+        <f>126-H52</f>
+        <v>63</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="M52" s="5">
-        <f>294-L52</f>
-        <v>145</v>
+        <f>116-L52</f>
+        <v>60</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -3979,44 +4093,36 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5">
-        <v>779</v>
+        <v>1018</v>
       </c>
       <c r="W52" s="3">
-        <v>724</v>
+        <v>240</v>
       </c>
       <c r="X52" s="3">
-        <v>895</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5">
-        <v>55</v>
-      </c>
-      <c r="E53" s="5">
-        <f>123-D53</f>
-        <v>68</v>
-      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5">
-        <v>63</v>
-      </c>
+      <c r="H53" s="5"/>
       <c r="I53" s="5">
-        <f>126-H53</f>
-        <v>63</v>
+        <v>-851</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5">
-        <v>56</v>
+        <v>-21</v>
       </c>
       <c r="M53" s="5">
-        <f>116-L53</f>
-        <v>60</v>
+        <f>-22-L53</f>
+        <v>-1</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -4026,36 +4132,47 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5">
-        <v>1018</v>
+        <v>-21</v>
       </c>
       <c r="W53" s="3">
-        <v>240</v>
+        <v>-209</v>
       </c>
       <c r="X53" s="3">
-        <v>277</v>
+        <v>-1147</v>
       </c>
     </row>
     <row r="54" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="D54" s="5">
+        <f>-99-83</f>
+        <v>-182</v>
+      </c>
+      <c r="E54" s="5">
+        <f>-95-D54</f>
+        <v>87</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <f>-95-47</f>
+        <v>-142</v>
+      </c>
       <c r="I54" s="5">
-        <v>-851</v>
+        <f>-186-121-H54</f>
+        <v>-165</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5">
-        <v>-21</v>
+        <f>-89-44</f>
+        <v>-133</v>
       </c>
       <c r="M54" s="5">
-        <f>-22-L54</f>
-        <v>-1</v>
+        <f>-179-110-L54</f>
+        <v>-156</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4065,47 +4182,46 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5">
-        <v>-21</v>
+        <v>-206</v>
       </c>
       <c r="W54" s="3">
-        <v>-209</v>
+        <f>-405-313</f>
+        <v>-718</v>
       </c>
       <c r="X54" s="3">
-        <v>-1147</v>
+        <f>-376-290</f>
+        <v>-666</v>
       </c>
     </row>
     <row r="55" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5">
-        <f>-99-83</f>
-        <v>-182</v>
-      </c>
-      <c r="E55" s="5">
-        <f>-95-D55</f>
-        <v>87</v>
-      </c>
+        <f>-69-45</f>
+        <v>-114</v>
+      </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <f>-95-47</f>
-        <v>-142</v>
+        <f>10-58</f>
+        <v>-48</v>
       </c>
       <c r="I55" s="5">
-        <f>-186-121-H55</f>
-        <v>-165</v>
+        <f>333-173-H55</f>
+        <v>208</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5">
-        <f>-89-44</f>
-        <v>-133</v>
+        <f>68-145</f>
+        <v>-77</v>
       </c>
       <c r="M55" s="5">
-        <f>-179-110-L55</f>
-        <v>-156</v>
+        <f>221-363-L55</f>
+        <v>-65</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -4115,46 +4231,50 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5">
-        <v>-206</v>
+        <f>248-91</f>
+        <v>157</v>
       </c>
       <c r="W55" s="3">
-        <f>-405-313</f>
-        <v>-718</v>
+        <f>344-2</f>
+        <v>342</v>
       </c>
       <c r="X55" s="3">
-        <f>-376-290</f>
-        <v>-666</v>
+        <f>939-623</f>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5">
-        <f>-69-45</f>
-        <v>-114</v>
-      </c>
-      <c r="E56" s="5"/>
+        <f>591-12-739-36-306+10+317-104</f>
+        <v>-279</v>
+      </c>
+      <c r="E56" s="5">
+        <f>-163-D56</f>
+        <v>116</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5">
-        <f>10-58</f>
-        <v>-48</v>
+        <f>359-56-717-270-306-365+885+71</f>
+        <v>-399</v>
       </c>
       <c r="I56" s="5">
-        <f>333-173-H56</f>
-        <v>208</v>
+        <f>683-6-1288-408+94-384+1596-430-H56</f>
+        <v>256</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5">
-        <f>68-145</f>
-        <v>-77</v>
+        <f>918-432-345-269+1124-74</f>
+        <v>922</v>
       </c>
       <c r="M56" s="5">
-        <f>221-363-L56</f>
-        <v>-65</v>
+        <f>1031-883-647+207+1860-754-L56</f>
+        <v>-108</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -4164,50 +4284,53 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5">
-        <f>248-91</f>
-        <v>157</v>
+        <f>-870-4-949+353+643+124+1282+302</f>
+        <v>881</v>
       </c>
       <c r="W56" s="3">
-        <f>344-2</f>
-        <v>342</v>
+        <f>-837-2-240+113-663-53+2812+151</f>
+        <v>1281</v>
       </c>
       <c r="X56" s="3">
-        <f>939-623</f>
-        <v>316</v>
+        <f>-1289-8-641-409+1066-398+2799+229</f>
+        <v>1349</v>
       </c>
     </row>
     <row r="57" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5">
-        <f>591-12-739-36-306+10+317-104</f>
-        <v>-279</v>
-      </c>
-      <c r="E57" s="5">
-        <f>-163-D57</f>
-        <v>116</v>
-      </c>
+        <f>SUM(D50:D56)</f>
+        <v>-690</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5">
-        <f>359-56-717-270-306-365+885+71</f>
-        <v>-399</v>
+        <f>SUM(H50:H56)</f>
+        <v>-444</v>
       </c>
       <c r="I57" s="5">
-        <f>683-6-1288-408+94-384+1596-430-H57</f>
-        <v>256</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+        <f>SUM(I50:I56)</f>
+        <v>982</v>
+      </c>
+      <c r="J57" s="5">
+        <f>1662-I57-H57</f>
+        <v>1124</v>
+      </c>
+      <c r="K57" s="5">
+        <f>2583-J57-I57-H57</f>
+        <v>921</v>
+      </c>
       <c r="L57" s="5">
-        <f>918-432-345-269+1124-74</f>
-        <v>922</v>
+        <f>SUM(L50:L56)</f>
+        <v>1160</v>
       </c>
       <c r="M57" s="5">
-        <f>1031-883-647+207+1860-754-L57</f>
-        <v>-108</v>
+        <f>SUM(M50:M56)</f>
+        <v>368</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4217,106 +4340,82 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5">
-        <f>-870-4-949+353+643+124+1282+302</f>
-        <v>881</v>
+        <f>SUM(V50:V56)</f>
+        <v>-114</v>
       </c>
       <c r="W57" s="3">
-        <f>-837-2-240+113-663-53+2812+151</f>
-        <v>1281</v>
+        <f>SUM(W50:W56)</f>
+        <v>1186</v>
       </c>
       <c r="X57" s="3">
-        <f>-1289-8-641-409+1066-398+2799+229</f>
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5">
-        <f>SUM(D51:D57)</f>
-        <v>-690</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5">
-        <f>SUM(H51:H57)</f>
-        <v>-444</v>
-      </c>
-      <c r="I58" s="5">
-        <f>SUM(I51:I57)</f>
-        <v>982</v>
-      </c>
-      <c r="J58" s="5">
-        <f>1662-I58-H58</f>
-        <v>1124</v>
-      </c>
-      <c r="K58" s="5">
-        <f>2583-J58-I58-H58</f>
-        <v>921</v>
-      </c>
-      <c r="L58" s="5">
-        <f>SUM(L51:L57)</f>
-        <v>1160</v>
-      </c>
-      <c r="M58" s="5">
-        <f>SUM(M51:M57)</f>
-        <v>368</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5">
-        <f>SUM(V51:V57)</f>
-        <v>-114</v>
-      </c>
-      <c r="W58" s="3">
-        <f>SUM(W51:W57)</f>
-        <v>1186</v>
-      </c>
-      <c r="X58" s="3">
-        <f>SUM(X51:X57)</f>
+        <f>SUM(X50:X56)</f>
         <v>2583</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
+        <v>-124</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5">
+        <v>-217</v>
+      </c>
+      <c r="I59" s="5">
+        <f>-374-H59</f>
+        <v>-157</v>
+      </c>
+      <c r="J59" s="5">
+        <f>-533-I59-H59</f>
+        <v>-159</v>
+      </c>
+      <c r="K59" s="5">
+        <f>-833-J59-I59-H59</f>
+        <v>-300</v>
+      </c>
+      <c r="L59" s="5">
+        <v>-186</v>
+      </c>
+      <c r="M59" s="5">
+        <v>-359</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5">
+        <v>-513</v>
+      </c>
+      <c r="W59" s="3">
+        <v>-744</v>
+      </c>
+      <c r="X59" s="3">
+        <v>-883</v>
       </c>
     </row>
     <row r="60" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5">
-        <v>-124</v>
-      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5">
-        <v>-217</v>
-      </c>
-      <c r="I60" s="5">
-        <f>-374-H60</f>
-        <v>-157</v>
-      </c>
-      <c r="J60" s="5">
-        <f>-533-I60-H60</f>
-        <v>-159</v>
-      </c>
-      <c r="K60" s="5">
-        <f>-833-J60-I60-H60</f>
-        <v>-300</v>
-      </c>
-      <c r="L60" s="5">
-        <v>-186</v>
-      </c>
-      <c r="M60" s="5">
-        <v>-359</v>
-      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -4324,30 +4423,34 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="5">
-        <v>-513</v>
-      </c>
-      <c r="W60" s="3">
-        <v>-744</v>
-      </c>
-      <c r="X60" s="3">
-        <v>-883</v>
-      </c>
+      <c r="V60" s="5"/>
     </row>
     <row r="61" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <f>-18+13+86</f>
+        <v>81</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="H61" s="5">
+        <f>-91+29-9</f>
+        <v>-71</v>
+      </c>
+      <c r="I61" s="5">
+        <f>-108+31+639+51</f>
+        <v>613</v>
+      </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="5">
+        <f>-6+90-25</f>
+        <v>59</v>
+      </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -4360,29 +4463,29 @@
     </row>
     <row r="62" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5">
-        <f>-18+13+86</f>
-        <v>81</v>
+        <f>D59+D61</f>
+        <v>-43</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="5">
-        <f>-91+29-9</f>
-        <v>-71</v>
+      <c r="H62" s="3">
+        <f>H59+H61</f>
+        <v>-288</v>
       </c>
       <c r="I62" s="5">
-        <f>-108+31+639+51</f>
-        <v>613</v>
+        <f>I61+I59</f>
+        <v>456</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5">
-        <f>-6+90-25</f>
-        <v>59</v>
+        <f>L61+L59</f>
+        <v>-127</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -4395,31 +4498,16 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5">
-        <f>D60+D62</f>
-        <v>-43</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="3">
-        <f>H60+H62</f>
-        <v>-288</v>
-      </c>
-      <c r="I63" s="5">
-        <f>I62+I60</f>
-        <v>456</v>
-      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="5">
-        <f>L62+L60</f>
-        <v>-127</v>
-      </c>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -4430,26 +4518,15 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
@@ -4463,7 +4540,7 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -4473,194 +4550,184 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
+      <c r="AA67" s="1">
+        <f>535-374</f>
+        <v>161</v>
+      </c>
+      <c r="AB67" s="1">
+        <f>1528-359</f>
+        <v>1169</v>
+      </c>
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="AA68" s="1">
-        <f>535-374</f>
-        <v>161</v>
-      </c>
-      <c r="AB68" s="1">
-        <f>1528-359</f>
-        <v>1169</v>
-      </c>
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="5">
+        <f>D57+D59</f>
+        <v>-814</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" ref="E72:M72" si="31">E57+E59</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="31"/>
+        <v>-661</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="31"/>
+        <v>825</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="31"/>
+        <v>965</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="31"/>
+        <v>621</v>
+      </c>
+      <c r="L72" s="5">
+        <f t="shared" si="31"/>
+        <v>974</v>
+      </c>
+      <c r="M72" s="5">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="V72" s="5">
+        <f>V57+V59</f>
+        <v>-627</v>
+      </c>
+      <c r="W72" s="5">
+        <f t="shared" ref="W72:X72" si="32">W57+W59</f>
+        <v>442</v>
+      </c>
+      <c r="X72" s="5">
+        <f t="shared" si="32"/>
+        <v>1700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z72" s="3">
+        <f>1.5*Y72</f>
+        <v>5100</v>
+      </c>
+      <c r="AA72" s="3">
+        <f>1.4*Z72</f>
+        <v>7140</v>
+      </c>
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="5">
-        <f>D58+D60</f>
-        <v>-814</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" ref="E73:M73" si="31">E58+E60</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <f t="shared" si="31"/>
+        <v>97</v>
+      </c>
+      <c r="H73" s="4">
         <v>-661</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="31"/>
-        <v>825</v>
-      </c>
-      <c r="J73" s="5">
-        <f t="shared" si="31"/>
+        <f>SUM(I51:I56,I49)</f>
+        <v>167</v>
+      </c>
+      <c r="J73" s="4">
         <v>965</v>
       </c>
-      <c r="K73" s="5">
-        <f t="shared" si="31"/>
+      <c r="K73" s="4">
         <v>621</v>
       </c>
-      <c r="L73" s="5">
-        <f t="shared" si="31"/>
+      <c r="L73" s="4">
         <v>974</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="31"/>
-        <v>9</v>
-      </c>
-      <c r="V73" s="5">
-        <f>V58+V60</f>
-        <v>-627</v>
-      </c>
-      <c r="W73" s="5">
-        <f t="shared" ref="W73:X73" si="32">W58+W60</f>
-        <v>442</v>
-      </c>
-      <c r="X73" s="5">
-        <f t="shared" si="32"/>
-        <v>1700</v>
-      </c>
-      <c r="Y73" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Z73" s="3">
-        <f>1.5*Y73</f>
-        <v>5100</v>
-      </c>
-      <c r="AA73" s="3">
-        <f>1.4*Z73</f>
-        <v>7140</v>
+        <f>M7*0.08</f>
+        <v>728.88</v>
+      </c>
+      <c r="N73" s="5">
+        <f>N7*0.12</f>
+        <v>1196.28</v>
+      </c>
+      <c r="O73" s="5">
+        <f>O7*0.07</f>
+        <v>827.82560000000024</v>
       </c>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H74" s="4">
-        <v>-661</v>
-      </c>
-      <c r="I74" s="5">
-        <f>SUM(I52:I57,I50)</f>
-        <v>167</v>
-      </c>
-      <c r="J74" s="4">
-        <v>965</v>
-      </c>
-      <c r="K74" s="4">
-        <v>621</v>
-      </c>
-      <c r="L74" s="4">
-        <v>974</v>
-      </c>
-      <c r="M74" s="5">
-        <f>M7*0.08</f>
-        <v>728.88</v>
-      </c>
-      <c r="N74" s="5">
-        <f>N7*0.12</f>
-        <v>1187.2116000000001</v>
-      </c>
-      <c r="O74" s="5">
-        <f>O7*0.07</f>
-        <v>827.82560000000024</v>
-      </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I75" s="13">
-        <f>I74/I7</f>
+      <c r="I74" s="13">
+        <f>I73/I7</f>
         <v>2.0355923939541685E-2</v>
       </c>
-      <c r="J75" s="13">
-        <f t="shared" ref="J75:L75" si="33">J74/J7</f>
+      <c r="J74" s="13">
+        <f>J73/J7</f>
         <v>0.10826882082351622</v>
       </c>
-      <c r="K75" s="13">
-        <f t="shared" si="33"/>
+      <c r="K74" s="13">
+        <f>K73/K7</f>
         <v>5.8812387536698554E-2</v>
       </c>
-      <c r="L75" s="13">
-        <f t="shared" si="33"/>
+      <c r="L74" s="13">
+        <f>L73/L7</f>
         <v>0.12126494023904383</v>
       </c>
-      <c r="M75" s="13">
-        <f t="shared" ref="M75" si="34">M74/M7</f>
+      <c r="M74" s="13">
+        <f>M73/M7</f>
         <v>0.08</v>
       </c>
-      <c r="N75" s="13">
-        <f t="shared" ref="N75" si="35">N74/N7</f>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="O75" s="13">
-        <f t="shared" ref="O75" si="36">O74/O7</f>
+      <c r="N74" s="13">
+        <f>N73/N7</f>
+        <v>0.12</v>
+      </c>
+      <c r="O74" s="13">
+        <f>O73/O7</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="1048576" spans="24:24" x14ac:dyDescent="0.15">
-      <c r="X1048576" s="3"/>
+    <row r="1048575" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X1048575" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
